--- a/data/genius_Bushido_Mythos.xlsx
+++ b/data/genius_Bushido_Mythos.xlsx
@@ -407,9 +407,76 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Part 1]Alles neu, also alles wie gewohntKeiner wird verschont, denn sie geiern auf den ThronYeah, machten einige Million'nTeilten die Vision, schein'n wie der MondGuck, die Uzi ist geladen und ich warte auf mei'm AnwesenSie dachten echt, ich könnte nicht mit dieser Angst lebenDas sind Filme, als würde dich ein Cop kill'nWir klopfen an die Himmelspforte, so wie Bob DylanLaufend Stress auf dem Hof, so wie KnastwärterIch merk' mir deine Fresse wie ein AspergerNachts Ärger, denn sie sind mir immer auf den FersenEgal, wie oft du fällst, wir kämpfen, bis wir sterbenYeah, keine Gnade für euch BastardeDer Weg ist steinig, doch ich geh', solang ich Kraft habeYeah, mit der Glock in den ShopIch hab' Bilder im Kopf, Sonny Vincent van Gogh[Hook]Heute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeahHeute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
-[Part 2]Ich bin der Typ, der hier seit zwanzig Jahr'n den Laden schmeißtBraungebrannt, AfD, Carmen GeissAlles bullshit, RTL, Kabel einsSchwarzes Geld, Ware heiß, Atemnot, FahrenheitGeht mal eure niedlichen Schecks einlösenMeine Vita respekteinflößendDeutsche Rapper und ihr Ego, NamedroppingDeutsche Rapper sind auf Hero, TrainspottingYeah, mache Scheine, verprass' sieHits über Koka wie Miami YacineNachts unterwegs, StraßenpoetDer Wagen rosé, Ferrari-EmblemApartment am See, die Nase voll SchneeDer Graf von Monte Christo, hab' die Jahre gezähltYeah, ihr seid räudige HundeIch hab' Freunde gefunden, Träume im Dunkeln[Hook]Heute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeahHeute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
-[Bridge]All die Momente, die nie wiederkehr'nEines Tages zählen keine Siege mehrSie rennt mir davon seit '98Geld auf der Bank, aber Zeit ist nicht käuflich, yeahAll die Momente, die uns machtenDie, in den wir weinten und lachtenSie rennt mir davon seit '98Geld auf der Bank, aber Zeit ist nicht käuflich[Hook]Heute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeahHeute hab' ich alles, was ich wollteMeine Frau, meine Kinder, meine GoldneMeine Eltern hoch über den WolkenIch weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah</t>
+          <t>[Part 1]
+Alles neu, also alles wie gewohnt
+Keiner wird verschont, denn sie geiern auf den Thron
+Yeah, machten einige Million'n
+Teilten die Vision, schein'n wie der Mond
+Guck, die Uzi ist geladen und ich warte auf mei'm Anwesen
+Sie dachten echt, ich könnte nicht mit dieser Angst leben
+Das sind Filme, als würde dich ein Cop kill'n
+Wir klopfen an die Himmelspforte, so wie Bob Dylan
+Laufend Stress auf dem Hof, so wie Knastwärter
+Ich merk' mir deine Fresse wie einAsperger
+Nachts Ärger, denn sie sind mir immer auf den Fersen
+Egal, wie oft du fällst, wir kämpfen, bis wir sterben
+Yeah, keine Gnade für euch Bastarde
+Der Weg ist steinig, doch ich geh', solang ich Kraft habe
+Yeah, mit der Glock in den Shop
+Ich hab' Bilder im Kopf, SonnyVincent van Gogh
+[Hook]
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
+[Part 2]
+Ich bin der Typ, der hier seit zwanzig Jahr'n den Laden schmeißt
+Braungebrannt, AfD,Carmen Geiss
+Alles bullshit, RTL, Kabel eins
+Schwarzes Geld, Ware heiß, Atemnot, Fahrenheit
+Geht mal eure niedlichen Schecks einlösen
+Meine Vita respekteinflößend
+Deutsche Rapper und ihr Ego, Namedropping
+Deutsche Rapper sind aufHero, Trainspotting
+Yeah, mache Scheine, verprass' sie
+Hits über Koka wie Miami Yacine
+Nachts unterwegs, Straßenpoet
+Der Wagen rosé, Ferrari-Emblem
+Apartment am See, die Nase voll Schnee
+Der Graf von Monte Christo, hab' die Jahre gezählt
+Yeah, ihr seid räudige Hunde
+Ich hab' Freunde gefunden,Träume im Dunkeln
+[Hook]
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
+[Bridge]
+All die Momente, die nie wiederkehr'n
+Eines Tages zählen keine Siege mehr
+Sie rennt mir davon seit '98
+Geld auf der Bank, aber Zeit ist nicht käuflich, yeah
+All die Momente, die uns machten
+Die, in den wir weinten und lachten
+Sie rennt mir davon seit '98
+Geld auf der Bank, aber Zeit ist nicht käuflich
+[Hook]
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah
+Heute hab' ich alles, was ich wollte
+Meine Frau, meine Kinder, meine Goldne
+Meine Eltern hoch über den Wolken
+Ich weiß, was Erfolg ist, Zeit ist nicht käuflich, yeah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -459,9 +526,90 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Mythos“][Part 1: Bushido]YeahJetzt kommt meine Zeit und der Rest kann geh'nKompromisslos, ich fick' deine besten zehnDu willst weg, doch wohin bloß? Keiner ist gebliebenMan hat Feinde, man hat Freunde, man hat Höhen, man hat TiefenEs geht rein in den Q7, raus in die WeltMich konnte keiner hier besiegen, Junge, außer mir selbstIch sehe finstere Gestalten, wie sie sing'nErsguterjunge und wir schleifen unsere Kling'nJedem meiner Feinde geht es an den KragenSie können mich nicht leiden, doch müssen mich ertragenEin Dorn in ihrem Auge, Spiegel ihrer selbstSag, woher kommt der Glaube, dass du niemals wieder fällst?Fick auf Ruhm, fick auf Geld, Junge, das hier ist für immerWarum du so behindert bist? Keinen blassen SchimmerDamals mit der MPC nachts in meinem ZimmerZwei Dekaden später bin ich Macher und Erfinder[Hook]Egal, wo ich bin, keine KonkurrenzZwanzig Jahre King und Millionen von FansMan kann es weder seh'n noch berühr'n, lediglich spür'nDie ganze Galaxie gehört mirDenn wo immer ich auch bin, ob hier oder dortNichts, was im Ansatz so wiegt wie mein WortSowas kann man weder seh'n noch berühr'nSie reden von mir, bevor sie ihr Leben verlier'nDer Mythos
-[Part 2]Ich hab' gesagt, dass ich kein Rapper binIhr wollt connecten, doch ich steche mit dem SchmetterlingDer Weg des Kriegers ist kein Satz, sondern alles, was ich hab'Deshalb kommen wir zu dir und ficken dich in deiner StadtOb bei Tag, ob bei Nacht, 24 Stunden DramaIch lehne mich zurück, denn dich ficken wird das KarmaSonny Black, Katana, Ticket ins NirvanaDu bist ein Choleriker, mach nicht auf Dalai LamaJunge, sieh dich vor, es geht zum Bordstein zurückHat dein Wort kein Gewicht, weißt du: Ohrfeige sitztEs ist Sodom und Gomorra, heut ist wieder StichtagIch bring' ein Album, ihr geht unter wie die BismarckYeah, deine Leute alles Platzpatron'nMeine Männer halten Stand wie ein BataillonSie suchen Schutz, doch vergebens, nur Schmutz, wenn sie redenLass sie, Mann, ich mach' das bis zum Schluss meines Lebens[Hook]Egal, wo ich bin, keine KonkurrenzZwanzig Jahre King und Millionen von FansMan kann es weder seh'n noch berühr'n, lediglich spür'nDie ganze Galaxie gehört mirDenn wo immer ich auch bin, ob hier oder dortNichts, was im Ansatz so wiegt wie mein WortSowas kann man weder seh'n noch berühr'nSie reden von mir, bevor sie ihr Leben verlier'nDer Mythos
-[Part 3]Der Anfang vom Ende, Mythen und LegendenTüte voller Geld oder Blüten in den HändenAlles wirkt so seltsam, wie das Blatt sich wendetJunge, du kannst stolz sein, keine Zeit verschwendetLass' die Penner liegen, erschossen im RegenSie hat mich geliebt, ich genoss ihren SegenUnd jeder Parasit, der jetzt kommt und will redenEntleer' das Magazin, kein Schuss geht danebenHeavy Metal Payback, AK und MG entsichertFrank Costello, Unterwelt-PremierministerFressen und sterben, ich lächle im HerzenDein Problem war es, nie vergessen zu werdenSonny, Electro GhettoSeit 2013 verflucht sei der EchoSchieß' in jede Richtung, Nord, West, Süd, OstKomm' dich erwürgen wie PythonsDer Mythos Bushido[Hook]Egal, wo ich bin, keine KonkurrenzZwanzig Jahre King und Millionen von FansMan kann es weder seh'n noch berühr'n, lediglich spür'nDie ganze Galaxie gehört mirDenn wo immer ich auch bin, ob hier oder dortNichts, was im Ansatz so wiegt wie mein WortSowas kann man weder seh'n noch berühr'nSie reden von mir, bevor sie ihr Leben verlier'nDer Mythos</t>
+          <t>[Songtext zu „Mythos“]
+[Part 1: Bushido]
+Yeah
+Jetzt kommt meine Zeit und der Rest kann geh'n
+Kompromisslos, ich fick' deine besten zehn
+Du willst weg, doch wohin bloß? Keiner ist geblieben
+Man hat Feinde, man hat Freunde, man hat Höhen, man hat Tiefen
+Es geht rein in den Q7, raus in die Welt
+Mich konnte keiner hier besiegen, Junge, außer mir selbst
+Ich sehe finstere Gestalten, wie sie sing'n
+Ersguterjunge und wir schleifen unsere Kling'n
+Jedem meiner Feinde geht es an den Kragen
+Sie können mich nicht leiden, doch müssen mich ertragen
+Ein Dorn in ihrem Auge, Spiegel ihrer selbst
+Sag, woher kommt der Glaube, dass du niemals wieder fällst?
+Fick auf Ruhm, fick auf Geld, Junge, das hier ist für immer
+Warum du so behindert bist? Keinen blassen Schimmer
+Damals mit der MPC nachts in meinem Zimmer
+Zwei Dekaden später bin ich Macher und Erfinder
+[Hook]
+Egal, wo ich bin, keine Konkurrenz
+Zwanzig Jahre King und Millionen von Fans
+Man kann es weder seh'n noch berühr'n, lediglich spür'n
+Die ganze Galaxie gehört mir
+Denn wo immer ich auch bin, ob hier oder dort
+Nichts, was im Ansatz so wiegt wie mein Wort
+Sowas kann man weder seh'n noch berühr'n
+Sie reden von mir, bevor sie ihr Leben verlier'n
+Der Mythos
+[Part 2]
+Ich hab' gesagt, dass ich kein Rapper bin
+Ihr wollt connecten,doch ich steche mit dem Schmetterling
+Der Weg des Kriegers ist kein Satz, sondern alles, was ich hab'
+Deshalb kommen wir zu dir und ficken dich in deiner Stadt
+Ob bei Tag, ob bei Nacht, 24 Stunden Drama
+Ich lehne mich zurück, denn dich ficken wird das Karma
+Sonny Black, Katana, Ticket ins Nirvana
+Du bist ein Choleriker, mach nicht aufDalai Lama
+Junge, sieh dich vor, es geht zum Bordstein zurück
+Hat dein Wort kein Gewicht, weißt du: Ohrfeige sitzt
+Es ist Sodom und Gomorra,heut ist wieder Stichtag
+Ich bring' ein Album, ihr geht unter wie die Bismarck
+Yeah, deine Leute alles Platzpatron'n
+Meine Männer halten Stand wie ein Bataillon
+Sie suchen Schutz, doch vergebens, nur Schmutz, wenn sie reden
+Lass sie, Mann, ich mach' das bis zum Schluss meines Lebens
+[Hook]
+Egal, wo ich bin, keine Konkurrenz
+Zwanzig Jahre King und Millionen von Fans
+Man kann es weder seh'n noch berühr'n, lediglich spür'n
+Die ganze Galaxie gehört mir
+Denn wo immer ich auch bin, ob hier oder dort
+Nichts, was im Ansatz so wiegt wie mein Wort
+Sowas kann man weder seh'n noch berühr'n
+Sie reden von mir, bevor sie ihr Leben verlier'n
+Der Mythos
+[Part 3]
+Der Anfang vom Ende, Mythen und Legenden
+Tüte voller Geld oder Blüten in den Händen
+Alles wirkt so seltsam, wie das Blatt sich wendet
+Junge, du kannst stolz sein, keine Zeit verschwendet
+Lass' die Penner liegen, erschossen im Regen
+Sie hat mich geliebt, ich genoss ihren Segen
+Und jeder Parasit, der jetzt kommt und will reden
+Entleer' das Magazin, kein Schuss geht daneben
+Heavy Metal Payback, AK und MG entsichert
+Frank Costello, Unterwelt-Premierminister
+Fressen und sterben, ich lächle im Herzen
+Dein Problem war es, nie vergessen zu werden
+Sonny, Electro Ghetto
+Seit 2013 verflucht sei der Echo
+Schieß' in jede Richtung, Nord, West, Süd, Ost
+Komm' dich erwürgen wie Pythons
+Der Mythos Bushido
+[Hook]
+Egal, wo ich bin, keine Konkurrenz
+Zwanzig Jahre King und Millionen von Fans
+Man kann es weder seh'n noch berühr'n, lediglich spür'n
+Die ganze Galaxie gehört mir
+Denn wo immer ich auch bin, ob hier oder dort
+Nichts, was im Ansatz so wiegt wie mein Wort
+Sowas kann man weder seh'n noch berühr'n
+Sie reden von mir, bevor sie ihr Leben verlier'n
+Der Mythos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -511,9 +659,79 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Hook]Seit 1998 bin ich im GeschäftEs geht nicht nur um Erfolge, doch sie geben mir rechtKellerstaub auf den goldnen Awards und TrophäenDie Kunst ist die richtigen Worte zu wähl'nDenn seit '98 such' ich meinesgleichenVersuch zu kopier'n, das hier kannst du nicht erreichenIch komm' nur zu dir, um deine Stadt zu zerreißenJunge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998[Part 1]Und jeder siehtMeine Unterarme erzählen inzwischen ein paar Geschichten, die das Leben schriebWer raffiniert hat, taktiert triumphiertFrau und Kids schlafen, ich mache den Beat bis um vier, yeahBusiness läuft, so wie Karawan'n, yeahSamra, Capital, hungrig wie RamadanNie wieder in mei'm Leben begeh' ich dieselben FehlerLieber dreißig Jahre Knast wie Nelson MandelaEGJ, nein, wir sind nicht zu schlagenSorry, aber Fakten sind indiskutabelIch hol' mir mein'n Besitz ohne Rücksicht auf VerlusteIch wurde jetzt glücklich, weil ich musste, yeahDiese Hunde sind Kopien, es gibt Hunderte von ihn'nDoch nur ich nehme den Raum ein wie dunkle Energie, yeahBild dir nicht ein, dass ich frag', ich verlang' esSie reden viel zu viel, auch wenn der Tag nicht mal lang istMachtstellung unangefochten, seit ihr denken könntUnd meine Brüder hab'n mir nicht mal einen Cent gegönntVerkehrte Welt, doch ich stell' sie auf den KopfBis es endlich wieder passt, dreh' im Bentley um den Block, yeahImmer an der Spitze, doch nie, weil ich Glück hab'Ja, ich bin jetzt vierzig, Zielgruppe Mütter, yeahDu musst dein'n Mann in dieser Prüfung steh'nKing Bushido, der Mythos lebt
-[Hook]Seit 1998 bin ich im GeschäftEs geht nicht nur um Erfolge, doch sie geben mir rechtKellerstaub auf den goldnen Awards und TrophäenDie Kunst ist die richtigen Worte zu wähl'nDenn seit '98 such' ich meinesgleichenVersuch zu kopier'n, das hier kannst du nicht erreichenIch komm' nur zu dir, um deine Stadt zu zerreißenJunge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998[Part 2]Damals fing es an mit Tapes tickenHeute könnt' ich, wenn ich wollt', die ganze Welt fickenPack und Gesindel, Mann, da fehl'n dir die WorteIch bring' eine Single, selbst Amerika supportetPush' ihn bis ins Orbit, mein MPC-SoundSpiel' im Loop paar Akkorde und die Fans ticken aus, yeahViel zu lange mitgemacht, Krisen kam um MitternachtWillst du den Charakter eines Menschen seh'n, gib ihm MachtSeit ich Sonny Black heiße, biten sie mein'n FlavourUnd ihr seid immer noch nicht mehr als ein paar RaverDas hier ist für jeden, der seit Tag eins dabei istEgal, wer mein Feind ist, er weiß, dass er Blei frisstYeah, es kann nicht immer nur bergauf geh'nMan trifft Entscheidungen, lässt Dinge ihren Lauf nehm'nZurück zu altem Glanz, alter DominanzWieder alle auf mei'm Schwanz, komm, wir spalten jetzt das LandNur Asse auf der Hand, darum hassen sie michIgnoranz, denn das B ist eine Klasse für sichTraditionsverein, das sind Multimillionen-DealsIch rapp' eine Strophe ein, spuck' auf sie und schon ist KriegJedes Steak könnte vergiftet seinTipp' in mein Handy und es geht in die Geschichte ein, so ist die EinsDich würd' die Wahrheit an die Wand drückenWie das Tattoo auf meinem Handrücken
-[Hook]Seit 1998 bin ich im GeschäftEs geht nicht nur um Erfolge, doch sie geben mir rechtKellerstaub auf den goldnen Awards und TrophäenDie Kunst ist die richtigen Worte zu wähl'nDenn seit '98 such' ich meinesgleichenVersuch zu kopier'n, das hier kannst du nicht erreichenIch komm' nur zu dir, um deine Stadt zu zerreißenJunge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998</t>
+          <t>[Hook]
+Seit 1998 bin ich im Geschäft
+Es geht nicht nur um Erfolge, doch sie geben mir recht
+Kellerstaub auf den goldnen Awards und Trophäen
+Die Kunst ist die richtigen Worte zu wähl'n
+Denn seit '98 such' ich meinesgleichen
+Versuch zu kopier'n, das hier kannst du nicht erreichen
+Ich komm' nur zu dir, um deine Stadt zu zerreißen
+Junge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998
+[Part 1]
+Und jeder siehtMeine Unterarme erzählen inzwischen ein paar Geschichten, die das Leben schrieb
+Wer raffiniert hat, taktiert triumphiert
+Frau und Kids schlafen, ich mache den Beat bis um vier, yeah
+Business läuft, so wie Karawan'n, yeah
+Samra, Capital, hungrig wie Ramadan
+Nie wieder in mei'm Leben begeh' ich dieselben FehlerLieber dreißig Jahre Knast wie Nelson Mandela
+EGJ, nein, wir sind nicht zu schlagen
+Sorry, aber Fakten sind indiskutabel
+Ich hol' mir mein'n Besitz ohne Rücksicht auf Verluste
+Ich wurde jetzt glücklich, weil ich musste, yeah
+Diese Hunde sind Kopien, es gibt Hunderte von ihn'n
+Doch nur ich nehme den Raum ein wie dunkle Energie, yeah
+Bild dir nicht ein, dass ich frag', ich verlang' es
+Sie reden viel zu viel, auch wenn der Tag nicht mal lang ist
+Machtstellung unangefochten, seit ihr denken könnt
+Und meine Brüder hab'n mir nicht mal einen Cent gegönnt
+Verkehrte Welt, doch ich stell' sie auf den Kopf
+Bis es endlich wieder passt, dreh' im Bentley um den Block, yeah
+Immer an der Spitze, doch nie, weil ich Glück hab'
+Ja, ich bin jetzt vierzig, Zielgruppe Mütter, yeah
+Du musst dein'n Mann in dieser Prüfung steh'n
+King Bushido, der Mythos lebt
+[Hook]
+Seit 1998 bin ich im Geschäft
+Es geht nicht nur um Erfolge, doch sie geben mir recht
+Kellerstaub auf den goldnen Awards und Trophäen
+Die Kunst ist die richtigen Worte zu wähl'n
+Denn seit '98 such' ich meinesgleichen
+Versuch zu kopier'n, das hier kannst du nicht erreichen
+Ich komm' nur zu dir, um deine Stadt zu zerreißen
+Junge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998
+[Part 2]
+Damals fing es an mit Tapes ticken
+Heute könnt' ich, wenn ich wollt', die ganze Welt ficken
+Pack und Gesindel, Mann, da fehl'n dir die Worte
+Ich bring' eine Single, selbst Amerika supportet
+Push' ihn bis ins Orbit, mein MPC-Sound
+Spiel' im Loop paar Akkorde und die Fans ticken aus, yeah
+Viel zu lange mitgemacht, Krisen kam um Mitternacht
+Willst du den Charakter eines Menschen seh'n, gib ihm Macht
+Seit ich Sonny Black heiße, biten sie mein'n FlavourUnd ihr seid immer noch nicht mehr als ein paar Raver
+Das hier ist für jeden, der seit Tag eins dabei ist
+Egal, wer mein Feind ist, er weiß, dass er Blei frisst
+Yeah, es kann nicht immer nur bergauf geh'n
+Man trifft Entscheidungen, lässt Dinge ihren Lauf nehm'n
+Zurück zu altem Glanz, alter DominanzWieder alle auf mei'm Schwanz, komm, wir spalten jetzt das Land
+Nur Asse auf der Hand, darum hassen sie mich
+Ignoranz, denn das B ist eine Klasse für sich
+Traditionsverein, das sind Multimillionen-Deals
+Ich rapp' eine Strophe ein, spuck' auf sie und schon ist Krieg
+Jedes Steak könnte vergiftet sein
+Tipp' in mein Handy und es geht in die Geschichte ein, so ist die Eins
+Dich würd' die Wahrheit an die Wand drücken
+Wie das Tattoo auf meinem Handrücken
+[Hook]
+Seit 1998 bin ich im Geschäft
+Es geht nicht nur um Erfolge, doch sie geben mir recht
+Kellerstaub auf den goldnen Awards und Trophäen
+Die Kunst ist die richtigen Worte zu wähl'n
+Denn seit '98 such' ich meinesgleichen
+Versuch zu kopier'n, das hier kannst du nicht erreichen
+Ich komm' nur zu dir, um deine Stadt zu zerreißen
+Junge, ich mach' diesen Scheiß schon ein Weilchen, seit 1998</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -563,10 +781,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Songtext zu „Für euch alle“ ft. Capital Bra &amp; Samra][Intro: Samples &amp; Capital Bra]„Vermutlich haben nun alle mitbekomm'n, dass Capital Bra sich von seinem Label getrennt hat.​“„'Ne andere, ähm, Schlagzeile, die diese Woche aufkam, die auch mit diesem Thema „Label verlassen“ zu tun hat, ist Capital Bra-Bra-Bra…“Na na na na[Hook: Capital Bra]Ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-leKomm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-le[Part 1: Capital Bra &amp; Bushido]Ich war immer grade, Bruder, du kannst jeden fragen (ja)Ich wünsch' niemandem was Schlechtes, ich will keinem schaden (nein)Viele platzen, viele hassen, ja, und viele blutenDoch im Gegensatz zu euch kann ich noch in den Spiegel guckenJeden Tag am ackern, Bra, auf Jacky-Cola, HazeNächtelang im Studio, frag doch mal The Cratez (bra)Erst nannten sie mich Bruder, danach Lügner, danach EhrenmannDoch ich schwör' dir auf alles, Bra, ich bin nicht wegen Geld gegang'nIch bin auch nicht wegen Geld gegang'n
-[Pre-Hook: Capital Bra]Ihr sagt: „Geld verändert Menschen wegen Status oder Ruhm“Ihr habt recht, Geld verändert Menschen, Menschen um dich rumDoch mich verändern keine Scheine, kein Erfolg und keine Preise (nein)Denn der Bratan bleibt der Gleiche, brra[Hook: Capital Bra]Ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-leKomm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-le[Part 2: Samra &amp; Capital Bra]Hurensöhne halten Fresse wie ein PantomimRrah, ich will essen, hol' mir Frank RosinMhua, nie wieder Mirácoli (nie wieder, Bra)Rapper fressen Projektile aus mei'm MagazinBam, bam, bam aus dem schwarz-matten VanYallah, fahr, fahr, fahr, denn die Taş-Karte brenntGuck, ich lade den Revolver, Samra TravoltaCash all-green wie ein Ganja-VerkäuferTicker im Benz, gefährlich intelligentIch kauf' ein Ticket nach Genf, die zehnte Kippe, sie brennt, RrraCataleya-Stil, nachts in dein Zimmer komm'nLibanon, Limasol, lila Knoll'n, Visa Gold, Bra
-[Hook: Capital Bra]Ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-leKomm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-le[Part 3: Bushido &amp; Capital Bra]Ihr habt recht, so wie früher wird's nie wieder seinDenn ich hab' euch groß gemacht und mach' euch wieder kleinIch fühl' mich endlich frei und baller' alles wegJa, mein Freund, ab heute ess' ich alles, was mir schmecktZwanzig Jahre Rap, bis dass der Tod uns scheidetBruder, ich lass' nicht mehr los, so wie ein PolizeigriffIhr habt mein Herz vergiftet mit eurer Art und WeiseIch geh' nach vorne, Dicka, du hängst in der WarteschleifeEure Fressen sind betäubt nach einer weißen LinieSalam, Capital! Salam! Willkomm'n in der Familie (bra)Wir laufen hoch und du läufst runter, du bist am KotzenAber du kannst mir nicht mehr, als auf die Schulter klopfen, yeah[Hook: Capital Bra]Ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-leKomm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)Ja, sie woll'n, dass ich zahle-le-le (le-le-le)Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)Und genug Kugeln für euch alle-le-le
-[Outro: Capital Bra]Dass ich falle-le-le (le-le)Le-le-le-le-leRe-re-reFür euch alle-le-le</t>
+          <t>[Songtext zu „Für euch alle“ ft. Capital Bra &amp; Samra]
+[Intro:Samples&amp; Capital Bra]
+„Vermutlich haben nun alle mitbekomm'n, dass Capital Bra sich von seinem Label getrennt hat.​“
+„'Ne andere, ähm, Schlagzeile, die diese Woche aufkam, die auch mit diesem Thema „Label verlassen“ zu tun hat, ist Capital Bra-Bra-Bra…“
+Na na na na
+[Hook: Capital Bra]
+Ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+Komm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+[Part 1: Capital Bra &amp;Bushido]
+Ich war immer grade, Bruder, du kannst jeden fragen (ja)
+Ich wünsch' niemandem was Schlechtes, ich will keinem schaden (nein)
+Viele platzen, viele hassen, ja, und viele bluten
+Doch im Gegensatz zu euch kann ich noch in den Spiegel gucken
+Jeden Tag am ackern, Bra, auf Jacky-Cola, Haze
+Nächtelang im Studio, frag doch mal The Cratez (bra)
+Erst nannten sie mich Bruder, danach Lügner, danach Ehrenmann
+Doch ich schwör' dir auf alles, Bra, ich bin nicht wegen Geld gegang'nIch bin auch nicht wegen Geld gegang'n
+[Pre-Hook: Capital Bra]
+Ihr sagt: „Geld verändert Menschen wegen Status oder Ruhm“
+Ihr habt recht, Geld verändert Menschen, Menschen um dich rum
+Doch mich verändern keine Scheine, kein Erfolg und keine Preise (nein)Denn der Bratan bleibt der Gleiche, brra
+[Hook: Capital Bra]
+Ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+Komm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+[Part 2: Samra &amp; Capital Bra]
+Hurensöhne halten Fresse wie ein Pantomim
+Rrah, ich will essen, hol' mir Frank RosinMhua, nie wieder Mirácoli (nie wieder, Bra)
+Rapper fressen Projektile aus mei'm Magazin
+Bam, bam, bam aus dem schwarz-matten Van
+Yallah, fahr, fahr, fahr, denn die Taş-Karte brennt
+Guck, ich lade den Revolver, Samra Travolta
+Cash all-green wie ein Ganja-Verkäufer
+Ticker im Benz, gefährlich intelligent
+Ich kauf' ein Ticket nach Genf, die zehnte Kippe, sie brennt, Rrra
+Cataleya-Stil, nachts in dein Zimmer komm'n
+Libanon, Limasol, lila Knoll'n, Visa Gold, Bra
+[Hook: Capital Bra]
+Ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+Komm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+[Part 3: Bushido &amp; Capital Bra]
+Ihr habt recht, so wie früher wird's nie wieder seinDenn ich hab' euch groß gemacht und mach' euch wieder klein
+Ich fühl' mich endlich frei und baller' alles weg
+Ja, mein Freund, ab heute ess' ich alles, was mir schmeckt
+Zwanzig Jahre Rap, bis dass der Tod uns scheidet
+Bruder, ich lass' nicht mehr los, so wie ein Polizeigriff
+Ihr habt mein Herz vergiftet mit eurer Art und Weise
+Ich geh' nach vorne, Dicka, du hängst in der Warteschleife
+Eure Fressen sind betäubt nach einer weißen Linie
+Salam, Capital! Salam! Willkomm'n in der Familie (bra)
+Wir laufen hoch und du läufst runter, du bist am Kotzen
+Aber du kannst mir nicht mehr, als auf die Schulter klopfen, yeah
+[Hook: Capital Bra]
+Ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+Komm, komm, ja, sie woll'n, dass ich falle-le-le (le-le-le)
+Ja, sie woll'n, dass ich zahle-le-le (le-le-le)
+Aber Bra, ich hab' 'ne Knarre-re-re (re-re-re)
+Und genug Kugeln für euch alle-le-le
+[Outro: Capital Bra]
+Dass ich falle-le-le (le-le)
+Le-le-le-le-le
+Re-re-re
+Für euch alle-le-le</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -616,9 +913,85 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Songtext zu „Stiche“][Part 1]Maske auf, Hände hoch, Überfall, Kasse dreiBares Cash, Nase Flex, im Café, Tasse ÇayImmer voll, Magazin, zieh' den Colt, baller' BleiSpotify, Rocky III, Sonny Black, CopyrightOriginal, Haus und Boot, Schwarzgeld, HavarieFein raus, Kaution, Startelf, AnarchieBlitzdieb, Mitternacht, hinter mir DrogencopsInternet, Instagram, Kinderstrich, ModeblogsNeuer Sitz, Stufe hoch, Zehlendorf, ObsthändlerEuer Biz, Hurensohn, Ehrenmord, StoßdämpferAngebot, Höhenwert, Vielfalt, miese TaşGraubezirk, Schöneberg, Zwiespalt, Liebe/HassMagen leer, Hungersnot, Goldplatte, „Wetten, dass..?“Aggressiv, unter Strom, Mordwaffe, ZellentraktAttackier', Schmetterling, stichfest, RasputinCCN, Ghettoking, Inzest, Maskulin[Hook]Sie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über SticheSie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über Stiche
-[Part 2]Wir reden hier von große Clans, Oberhand, Machtkampf, RosenkriegBackpacker, Vendetta, Schlappschwanz, Hose tiefRauschgift, aufgeteilt, Philly Blunt, TilidinBlaulicht, auf die Eins, Immigrant, ZinedineKriminal, angesteckt, EGJ, schwarzer BenzMinimal, Grammgeschäft, Edelstoff, Ware glänztUnterwegs, Saunaclub, Artemis, SéparéeBonnie/ Clyde, Partnerlook, Camaro, ChevroletScheine bar, Tischgedeck, Sonny klärt, Yeezy BoostEinzelhaft, Richtercheck, kontrovers, HitlergrußAngelegt, Schweizer Bank, Nike-Center, Schuh anAMG, weiterfahr'n, Kleinhändler, Ku'dammPromodiss, Kindercrews, Blu-Ray, DobermannJournalist, Interviews, Bruce Wayne, HologrammAmazon-Bestseller, wer hat Angst? Schwarzer MannGott sei Dank bringt der Junge Rap wieder ins Vaterland[Hook]Sie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über SticheSie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über Stiche
-[Part 3]Jeden Tag beim Fotoshoot, Interview, keine Zeit, heute nichtKlappe zu, Affe tot, neue Gang, neues GlückButterfly, Messerstich, MPC, Carlo CokxxxStraßenfight, Pfefferminz, Cassius Clay, Nase hochNightliner, Knight Rider, ficke Mütter landesweitDrei Weiber, Eyeliner, Ehre weg, Schande bleibtAusländer, Bösewicht, Ali macht BoxerschnittBenzema, SEK, Razzia, Stoff verticktUnterwelt unverfälscht, Hunde bell'n sowiesoJugendhaft, oh, wie krass, gute Nacht, RohypnolHaftstrafe, Heidering, hochgradig schizophrenFacebook-Monolog, du Koksnase, ist okayOhne Stoff geht nicht mehr, Dopamin, SubutexKing of Kingz, Sonny Black, scheißegal, was du so rappstCharité, Flatline, EKG, HerzinfarktGlaub mir mal, irgendwann bringt dich dieser Schmerz ins Grab[Hook]Sie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über SticheSie wollen meinen Kopf, observier'n meine SchritteUndercovercops und die Feinde in der CliqueSie grüßen mich am Block, denn sie wissen, wie ich tickeNarben über Narben, Stiche über Stiche</t>
+          <t>[Songtext zu „Stiche“]
+[Part 1]
+Maske auf, Hände hoch, Überfall, Kasse drei
+Bares Cash, Nase Flex, im Café, Tasse Çay
+Immer voll, Magazin, zieh' den Colt, baller' Blei
+Spotify, Rocky III, Sonny Black, Copyright
+Original, Haus und Boot, Schwarzgeld, Havarie
+Fein raus, Kaution, Startelf, Anarchie
+Blitzdieb, Mitternacht, hinter mir Drogencops
+Internet, Instagram, Kinderstrich, Modeblogs
+Neuer Sitz, Stufe hoch, Zehlendorf, Obsthändler
+Euer Biz, Hurensohn, Ehrenmord, Stoßdämpfer
+Angebot, Höhenwert, Vielfalt, miese Taş
+Graubezirk, Schöneberg, Zwiespalt, Liebe/Hass
+Magen leer, Hungersnot, Goldplatte, „Wetten, dass..?“
+Aggressiv, unter Strom, Mordwaffe, Zellentrakt
+Attackier', Schmetterling, stichfest, Rasputin
+CCN, Ghettoking, Inzest, Maskulin
+[Hook]
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche
+[Part 2]
+Wir reden hier von große Clans, Oberhand, Machtkampf, Rosenkrieg
+Backpacker, Vendetta, Schlappschwanz, Hose tief
+Rauschgift, aufgeteilt, Philly Blunt, Tilidin
+Blaulicht, auf die Eins, Immigrant, Zinedine
+Kriminal, angesteckt, EGJ, schwarzer Benz
+Minimal, Grammgeschäft, Edelstoff, Ware glänzt
+Unterwegs, Saunaclub, Artemis, Séparée
+Bonnie/ Clyde, Partnerlook, Camaro, Chevrolet
+Scheine bar, Tischgedeck, Sonny klärt, Yeezy Boost
+Einzelhaft, Richtercheck, kontrovers, Hitlergruß
+Angelegt, Schweizer Bank, Nike-Center, Schuh an
+AMG, weiterfahr'n, Kleinhändler, Ku'damm
+Promodiss, Kindercrews, Blu-Ray, Dobermann
+Journalist, Interviews, Bruce Wayne, Hologramm
+Amazon-Bestseller, wer hat Angst? Schwarzer Mann
+Gott sei Dank bringt der Junge Rap wieder ins Vaterland
+[Hook]
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche
+[Part 3]
+Jeden Tag beim Fotoshoot, Interview, keine Zeit, heute nicht
+Klappe zu, Affe tot, neue Gang, neues Glück
+Butterfly, Messerstich, MPC, Carlo Cokxxx
+Straßenfight, Pfefferminz, Cassius Clay, Nase hoch
+Nightliner, Knight Rider, ficke Mütter landesweit
+Drei Weiber, Eyeliner, Ehre weg, Schande bleibt
+Ausländer, Bösewicht, Ali macht Boxerschnitt
+Benzema, SEK, Razzia, Stoff vertickt
+Unterwelt unverfälscht, Hunde bell'n sowieso
+Jugendhaft, oh, wie krass, gute Nacht, Rohypnol
+Haftstrafe, Heidering, hochgradig schizophren
+Facebook-Monolog, du Koksnase, ist okay
+Ohne Stoff geht nicht mehr, Dopamin, Subutex
+King of Kingz, Sonny Black, scheißegal, was du so rappst
+Charité, Flatline, EKG, Herzinfarkt
+Glaub mir mal, irgendwann bringt dich dieser Schmerz ins Grab
+[Hook]
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche
+Sie wollen meinen Kopf, observier'n meine Schritte
+Undercovercops und die Feinde in der Clique
+Sie grüßen mich am Block, denn sie wissen, wie ich ticke
+Narben über Narben, Stiche über Stiche</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -668,8 +1041,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Skit (Mythos)“][Part]Yeah, Bushido, das OriginalKohle im Safe wie ein HollywoodstarWorst-Case-Szenario ist eure Mütter bekommen es doggy analYeah, fick DeutschrapperMusikpreise stapeln wie Lloyd WebberEin Anruf von mir und sie knipsen dein Licht aus wie VollstreckerYeah, yeah, tausendundeins Plagiate da draußenFoto, Foto, auf der Straße beim LaufenHunderte Fotzen am Tag machen AugeNa klar kann man da eine Scharfe gebrauchenHerzen aus Stein wie die Narcos-KillerAnna-Maria in Pablos VillaIch jage dein'n Arsch mit ein paar GorillaEinmal quer durch die Stadt wie Chicago RiverSie seh’n mich und seh'n nur den TeufelAlso nehme ich die Seelen der LeuteStopfe den Fotzen die Mäuler und geheWeil ich nie was im Leben bereuteHäng' mit den Stars und Proleten am CateringVoller Hass, weil ich einfach ein Hater binEin Leben wie Serien - Stranger ThingsBushidos B kennt jedes KindDas ist wie ein Leben lang warten auf einen MomentJetzt wird die Spreu vom Weizen getrenntUnd dann die Beute geteilt mit der GangSeit 2001 verbreit’ ich meinen Slang, yeahJederzeit eine Scharfe dabeiWie die scheiß KriminalpolizeiUnd ich bleib' Rap-MastermindDenn ich hab' Capi gesignt
-[Outro]Yeah, yeah, ahYeah, yeah, ahYeah, yeah</t>
+          <t>[Songtext zu „Skit (Mythos)“]
+[Part]
+Yeah, Bushido, das Original
+Kohle im Safe wie ein Hollywoodstar
+Worst-Case-Szenario ist eure Mütter bekommen es doggy anal
+Yeah, fick Deutschrapper
+Musikpreise stapeln wie Lloyd Webber
+Ein Anruf von mir und sie knipsen dein Licht aus wie Vollstrecker
+Yeah, yeah, tausendundeins Plagiate da draußen
+Foto, Foto, auf der Straße beim Laufen
+Hunderte Fotzen am Tag machen Auge
+Na klar kann man da eine Scharfe gebrauchen
+Herzen aus Stein wie die Narcos-Killer
+Anna-Maria in Pablos Villa
+Ich jage dein'n Arsch mit ein paar Gorilla
+Einmal quer durch die Stadt wie Chicago River
+Sie seh’n mich und seh'n nur den Teufel
+Also nehme ich die Seelen der Leute
+Stopfe den Fotzen die Mäuler und gehe
+Weil ich nie was im Leben bereute
+Häng' mit den Stars und Proleten am Catering
+Voller Hass, weil ich einfach ein Hater bin
+Ein Leben wie Serien - Stranger Things
+Bushidos B kennt jedes Kind
+Das ist wie ein Leben lang warten auf einen Moment
+Jetzt wird die Spreu vom Weizen getrennt
+Und dann die Beute geteilt mit der Gang
+Seit 2001 verbreit’ ich meinen Slang, yeah
+Jederzeit eine Scharfe dabei
+Wie die scheiß Kriminalpolizei
+Und ich bleib' Rap-Mastermind
+Denn ich hab' Capi gesignt
+[Outro]
+Yeah, yeah, ah
+Yeah, yeah, ah
+Yeah, yeah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -719,8 +1126,57 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Intro: Bushido]Yeah![Part 1: Bushido]Und ja, ich zahle dir das Ticket in die Hölle, kein Preis ist zu hochDeine Reise beginnt jetzt, begleitet vom TodWo war der Sinn? Nur ich teilte mein BrotBis hierhin und nicht weiter, besteige den ThronIch bin Sonny Black, das hier wird nicht lustigDas ist, was ich will, Bruder, glaub mir mal, ich muss nichtWeil ich jeden kill', der mir aktuell den Nerv raubtMach mal kein'n Film, Dicker, heute gehst du leer aus, yeahWer ist Gangster? Sikerim, du PiçDenn diese Fotzen haben mehr als nur 'ne Schelle verdientMeine MPC ist legendär, zwanzig Jahre StorySag mir, welcher Penner hier hat Klassiker wie Sonny?Ich hauchte dieser Szene ihre Seele einBordstein fressen mit den Zähnen und ich trete reinSchleif' einen Rohdiamanten zu 'nem EdelsteinWegen euch werd' ich nie wieder 'ne Träne wein'n[Hook: Bushido]Yeah, sie sagen, „Pass auf deinen Rücken auf!“Und machen Auge, sie lügen, geh'n ihre Lippen aufKeine Mühe, euch fick' ich auchGenau wie früher, drücke glühende Kippen auf euren Rippen ausYeah, sie sagen, „Pass auf deinen Rücken auf!“Denken, meine Beine wären müde, doch ich geb' nicht aufWer ist übel drauf? Bin ich auch!Die Hölle wartet, ja, ich zahle für jeden, der noch ein Ticket braucht
-[Part 2: Samra]Habibi, wir schießen mit Blei, darum tragen uns're Feinde KevlarWeiße Rocks in den Socken so wie Reinhold Messner, yeah (brra)Lila Batzen für Mama, weil sie 's nicht leicht hatteMesserstecherei'n in meiner PolizeiakteSchrotflinte abgesägt, bam (bam, bam)Der erste Schuss sitzt, guck, ich komm' in deine Wohnung und werd' alles nehm'nRrah, weil wir rotseh'n, durchdreh'n, AMGDope ballern, Nase Schnee, Road Runner, Ali Daei, woahFick auf alles, wenn ich Streit mache, BlackoutTunnelblick, halbe Stunde später nehm' ich Track aufDreiundzwanzig Jahre und ich stapel' das GeldAuf dem Glastisch, als wär's das Normalste der Welt, yeahScheiß auf die perfekte Schiene, ich verdiene schnellerProduziere nur noch Hits in Bushidos KellerWir geh'n das erste Mal in Knast unter achtzehnPress' die Neunmili in dein kack Face, sahten[Hook: Bushido]Yeah, sie sagen, „Pass auf deinen Rücken auf!“Und machen Auge, sie lügen, geh'n ihre Lippen aufKeine Mühe, euch fick' ich auchGenau wie früher, drücke glühende Kippen auf euren Rippen ausYeah, sie sagen, „Pass auf deinen Rücken auf!“Denken, meine Beine wären müde, doch ich geb' nicht aufWer ist übel drauf? Bin ich auch!Die Hölle wartet, ja, ich zahle für jeden, der noch ein Ticket braucht</t>
+          <t>[Intro: Bushido]
+Yeah!
+[Part 1: Bushido]
+Und ja, ich zahle dir das Ticket in die Hölle, kein Preis ist zu hoch
+Deine Reise beginnt jetzt, begleitet vom Tod
+Wo war der Sinn? Nur ich teilte mein BrotBis hierhin und nicht weiter,besteige den Thron
+Ich bin Sonny Black, das hier wird nicht lustig
+Das ist, was ich will, Bruder, glaub mir mal, ich muss nicht
+Weil ich jeden kill', der mir aktuell den Nerv raubt
+Mach mal kein'n Film, Dicker, heute gehst du leer aus, yeah
+Wer ist Gangster?Sikerim, du Piç
+Denn diese Fotzen haben mehr als nur 'ne Schelle verdient
+Meine MPC ist legendär, zwanzig Jahre Story
+Sag mir, welcher Penner hier hat Klassiker wie Sonny?
+Ich hauchte dieser Szene ihre Seele ein
+Bordstein fressen mit den Zähnen und ich trete rein
+Schleif' einen Rohdiamanten zu 'nem Edelstein
+Wegen euch werd' ich nie wieder 'ne Träne wein'n
+[Hook: Bushido]
+Yeah, sie sagen, „Pass auf deinen Rücken auf!“Und machen Auge, sie lügen, geh'n ihre Lippen auf
+Keine Mühe, euch fick' ich auch
+Genau wie früher, drücke glühende Kippen auf euren Rippen aus
+Yeah, sie sagen, „Pass auf deinen Rücken auf!“
+Denken, meine Beine wären müde, doch ich geb' nicht auf
+Wer ist übel drauf? Bin ich auch!
+Die Hölle wartet, ja, ich zahle für jeden, der noch ein Ticket braucht
+[Part 2: Samra]
+Habibi, wir schießen mit Blei, darum tragen uns're Feinde Kevlar
+Weiße Rocks in den Socken so wie Reinhold Messner, yeah (brra)
+Lila Batzen für Mama, weil sie 's nicht leicht hatte
+Messerstecherei'n in meiner Polizeiakte
+Schrotflinte abgesägt, bam (bam, bam)
+Der erste Schuss sitzt, guck, ich komm' in deine Wohnung und werd' alles nehm'n
+Rrah, weil wir rotseh'n, durchdreh'n, AMG
+Dope ballern, Nase Schnee, Road Runner,Ali Daei,woah
+Fick auf alles, wenn ich Streit mache, Blackout
+Tunnelblick,halbe Stunde später nehm' ich Trackauf
+Dreiundzwanzig Jahre und ich stapel' das Geld
+Auf dem Glastisch, als wär's das Normalste der Welt, yeah
+Scheiß auf die perfekte Schiene, ich verdiene schneller
+Produziere nur noch Hits in Bushidos Keller
+Wir geh'n das erste Mal in Knast unter achtzehn
+Press' die Neunmili in dein kack Face,sahten
+[Hook: Bushido]
+Yeah, sie sagen, „Pass auf deinen Rücken auf!“Und machen Auge, sie lügen, geh'n ihre Lippen auf
+Keine Mühe, euch fick' ich auch
+Genau wie früher, drücke glühende Kippen auf euren Rippen aus
+Yeah, sie sagen, „Pass auf deinen Rücken auf!“
+Denken, meine Beine wären müde, doch ich geb' nicht auf
+Wer ist übel drauf? Bin ich auch!
+Die Hölle wartet, ja, ich zahle für jeden, der noch ein Ticket braucht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -770,8 +1226,58 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Songtext zu „Geigenkoffer“][Part 1]Yeah, eines Tages wachst du auf und plötzlich wird dir klarDinge um dich rum verändern sich, Freunde werden rarDie Hoffnung in der Ferne, der Teufel war mir nahDoch ich musste ihm entkomm'n, zu welchem Preis war egalDenn es ging um meine Seele, ging um meine FreiheitLiebe und Karriere, vom Bordstein bis zur SkylineBLN Crimetime, ich eliminiereEins, zwei, drei, vier Stiche in die NiereZwanzig Jahre Zeitraffer, nichts blieb davon übrigDer lila Schein macht vieles, mein Freund, aber er trügt nichtNehme keine Rücksicht, zeig’ keine GefühleZeig' den Wichsern nur, ich bin der Beste auf der BühneHol' den Geigenkoffer raus aus dem Schrank, wisch’ den Staub von der HandUm jeden einzelnen zu ficken, denn mich braucht dieses LandYeah, das hier wird euer VerhängnisTotgesagt, totgeschwiegen, doch lebendig[Hook]Mit wem ihr euch hier anlegt, wer seid ihr Opfer?Dicka, stell dich hinten an, meine Zeit ist kostbar24/7 Stress, doch ich bleibe lockerWarte ab und dann statt' ich ihnen allen ein'n Besuch ab mit GeigenkofferYeah, jetzt mal ernsthaft, wer seid ihr Opfer?Dicka, stell dich hinten an, meine Zeit ist kostbar24/7 Stress, doch ich bleibe lockerDenn ich habe ihn dabei, meinen Geigenkoffer
-[Part 2]Eines Tages weißt du einfach, was zu tun istUnd wie viel wert Geld, Einfluss und Ruhm istSchlangen und Hyän'n, dieses Business, ich verfluch' esDu zitterst und frierst, so als ob du grad verblutestMach' die Scheine locker, zähle Lilane im weißen JoggerOff-White, neben mir ein GeigenkofferDamals versorgte ich die Nachbarn wie ein StromnetzHeute schenk' ich jedem meiner Brüder eine RolexBrandneue Signings dank meines TimingsJa, Mann, ich lehre diese Schlampen, was Neid istUnd es fühlt sich wieder gut anSpür' die Endorphine in der Blutbahn, fliege übern Ku’dammKille Feinde zu GeigenmelodienVielleicht gehst du morgen drauf, das ist keine IronieDas hier ist noch nicht zu EndeJe größer der Sieg, desto größer die Legende[Hook]Mit wem ihr euch hier anlegt, wer seid ihr Opfer?Dicka, stell dich hinten an, meine Zeit ist kostbar24/7 Stress, doch ich bleibe lockerWarte ab und dann statt’ ich ihnen allen ein'n Besuch ab mit GeigenkofferYeah, jetzt mal ernsthaft, wer seid ihr Opfer?Dicka, stell dich hinten an, meine Zeit ist kostbar24/7 Stress, doch ich bleibe lockerDenn ich habe ihn dabei, meinen Geigenkoffer</t>
+          <t>[Songtext zu „Geigenkoffer“]
+[Part 1]
+Yeah, eines Tages wachst du auf und plötzlich wird dir klar
+Dinge um dich rum verändern sich, Freunde werden rar
+Die Hoffnung in der Ferne, der Teufel war mir nah
+Doch ich musste ihm entkomm'n, zu welchem Preis war egalDenn es ging um meine Seele, ging um meine Freiheit
+Liebe und Karriere,vom Bordstein bis zur Skyline
+BLN Crimetime, ich eliminiere
+Eins, zwei, drei, vier Stiche in die Niere
+Zwanzig Jahre Zeitraffer, nichts blieb davon übrig
+Der lila Schein macht vieles, mein Freund, aber er trügt nicht
+Nehme keine Rücksicht, zeig’ keine Gefühle
+Zeig' den Wichsern nur, ich bin der Beste auf der Bühne
+Hol' den Geigenkoffer raus aus dem Schrank, wisch’ den Staub von der Hand
+Um jeden einzelnen zu ficken, denn mich braucht dieses Land
+Yeah, das hier wird euer Verhängnis
+Totgesagt, totgeschwiegen, doch lebendig
+[Hook]
+Mit wem ihr euch hier anlegt, wer seid ihr Opfer?
+Dicka, stell dich hinten an, meine Zeit ist kostbar
+24/7 Stress, doch ich bleibe locker
+Warte ab und dann statt' ich ihnen allen ein'n Besuch ab mit Geigenkoffer
+Yeah, jetzt mal ernsthaft, wer seid ihr Opfer?
+Dicka, stell dich hinten an, meine Zeit ist kostbar
+24/7 Stress, doch ich bleibe locker
+Denn ich habe ihn dabei, meinen Geigenkoffer
+[Part 2]
+Eines Tages weißt du einfach, was zu tun ist
+Und wie viel wert Geld, Einfluss und Ruhm ist
+Schlangen und Hyän'n, dieses Business, ich verfluch' es
+Du zitterst und frierst, so als ob du grad verblutest
+Mach' die Scheine locker, zähle Lilane im weißen Jogger
+Off-White, neben mir ein Geigenkoffer
+Damals versorgte ich die Nachbarn wie ein Stromnetz
+Heute schenk' ich jedem meiner Brüder eine Rolex
+Brandneue Signings dank meines Timings
+Ja, Mann, ich lehre diese Schlampen, was Neid ist
+Und es fühlt sich wieder gut an
+Spür' die Endorphine in der Blutbahn, fliege übern Ku’damm
+Kille Feinde zu Geigenmelodien
+Vielleicht gehst du morgen drauf, das ist keine Ironie
+Das hier ist noch nicht zu Ende
+Je größer der Sieg, desto größer die Legende
+[Hook]
+Mit wem ihr euch hier anlegt, wer seid ihr Opfer?
+Dicka, stell dich hinten an, meine Zeit ist kostbar
+24/7 Stress, doch ich bleibe locker
+Warte ab und dann statt’ ich ihnen allen ein'n Besuch ab mit Geigenkoffer
+Yeah, jetzt mal ernsthaft, wer seid ihr Opfer?
+Dicka, stell dich hinten an, meine Zeit ist kostbar
+24/7 Stress, doch ich bleibe locker
+Denn ich habe ihn dabei, meinen Geigenkoffer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -821,9 +1327,66 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Songtext zu „Inshallah“ ft. Capital Bra][Intro: Capital Bra]Yeah, ja, BratanInschallah deine Sünden werden verzieh'nInschallah deine Sünden werden verzieh’nAh[Hook: Capital Bra]Das Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien’nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'nInschallah deine Sünden werden verzieh'n (Inschallah)Das Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien'nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)Inschallah deine Sünden werden verzieh'n[Part 1: Capital Bra]Ich kenn’ Menschen wie dich, ihr macht gerne Ansagen (Ja)Ihr schreit, ihr wollt, dass alle andern Angst haben (Hehe)Kein’n Respekt vor keinem Mensch, ihr seid immer frech (Ah)Ihr seht keine Fehler ein, ihr habt immer RechtNach außen hin sympathisch, tief im Inner'n bist du teuflischWas für Ehrenmann? Tief im Innern bist du käuflichZu Schwachen bist du schlecht, zu Starken bist du freundlichAuf einmal bist du gläubig, du bist so richtig räudig
-[Pre-Hook: Capital Bra]Deine Taten werd’n dir zum VerhängnisWie viel Leute sind wegen dir im Gefängnis?Aber ich wünsch' dir nichts SchlechtesDenn nur Gott weiß, was gerecht ist (Inschallah)[Hook: Capital Bra]Das Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien’nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)Inschallah deine Sünden werden verzieh'nDas Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien'nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)Inschallah deine Sünden werden verzieh'n[Part 2: Bushido &amp; Capital Bra]Ich kenn' Menschen wie dich, die stets ein'n Grund für Streit findenImmerzu Wasser predigen und Wein trinkenDenn gemessen wird mit zweierlei MaßSie vergessen sich jeden Tag, weil keiner was sagtKönnen keinem trau'n, zwanghaftes Spionier'nVerzehrte Wahrnehmung, alles außer selbstreflektiertSie sind listig und verlogen, so verleiten sie ein'nAber reden so, als trügen sie 'nen HeiligenscheinWeil ihn'n irgendetwas fehlt zur Vollkommenheit – sieben AchtelUngenügsam, nichts kann sie zufrieden machenDieses Leben funktioniert wie 'ne PralinenschachtelJeder kriegt nur das, was er verdient (Inschallah)
-[Hook: Capital Bra]Das Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien'nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)Inschallah deine Sünden werden verzieh'nDas Leben ist 'ne Schachtel Pralin'n (Jaja)Und alle kriegen das, was sie verdien'nEgal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)Inschallah deine Sünden werden verzieh'n</t>
+          <t>[Songtext zu „Inshallah“ ft. Capital Bra]
+[Intro: Capital Bra]
+Yeah, ja, Bratan
+Inschallah deine Sünden werden verzieh'n
+Inschallah deine Sünden werden verzieh’n
+Ah
+[Hook: Capital Bra]
+Das Leben ist 'ne Schachtel Pralin'n (Jaja)
+Und alle kriegen das, was sie verdien’n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n
+Inschallah deine Sünden werden verzieh'n(Inschallah)
+Das Leben ist 'ne Schachtel Pralin'n(Jaja)
+Und alle kriegen das, was sie verdien'n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n(Inschallah)
+Inschallah deine Sünden werden verzieh'n
+[Part 1: Capital Bra]
+Ich kenn’ Menschen wie dich, ihr macht gerne Ansagen (Ja)
+Ihr schreit, ihr wollt, dass alle andern Angst haben (Hehe)
+Kein’n Respekt vor keinem Mensch, ihr seid immer frech (Ah)
+Ihr seht keine Fehler ein, ihr habt immer Recht
+Nach außen hin sympathisch, tief im Inner'n bist du teuflisch
+Was für Ehrenmann? Tief im Innern bist du käuflich
+Zu Schwachen bist du schlecht, zu Starken bist du freundlich
+Auf einmal bist du gläubig, du bist so richtig räudig
+[Pre-Hook: Capital Bra]
+Deine Taten werd’n dir zum Verhängnis
+Wie viel Leute sind wegen dir im Gefängnis?
+Aber ich wünsch' dir nichts Schlechtes
+Denn nur Gott weiß, was gerecht ist (Inschallah)
+[Hook: Capital Bra]
+Das Leben ist 'ne Schachtel Pralin'n (Jaja)
+Und alle kriegen das, was sie verdien’n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)
+Inschallah deine Sünden werden verzieh'n
+Das Leben ist 'ne Schachtel Pralin'n (Jaja)
+Und alle kriegen das, was sie verdien'n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)
+Inschallah deine Sünden werden verzieh'n
+[Part 2: Bushido &amp; Capital Bra]
+Ich kenn' Menschen wie dich, die stets ein'n Grund für Streit finden
+Immerzu Wasser predigen und Wein trinken
+Denn gemessen wird mit zweierlei Maß
+Sie vergessen sich jeden Tag, weil keiner was sagt
+Können keinem trau'n, zwanghaftes Spionier'n
+Verzehrte Wahrnehmung, alles außer selbstreflektiert
+Sie sind listig und verlogen, so verleiten sie ein'n
+Aber reden so, als trügen sie 'nen Heiligenschein
+Weil ihn'n irgendetwas fehlt zur Vollkommenheit – sieben Achtel
+Ungenügsam, nichts kann sie zufrieden machen
+Dieses Leben funktioniert wie 'ne Pralinenschachtel
+Jeder kriegt nur das, was er verdient (Inschallah)
+[Hook: Capital Bra]
+Das Leben ist 'ne Schachtel Pralin'n (Jaja)
+Und alle kriegen das, was sie verdien'n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)
+Inschallah deine Sünden werden verzieh'n
+Das Leben ist 'ne Schachtel Pralin'n (Jaja)
+Und alle kriegen das, was sie verdien'n
+Egal, wie schnell du rennst, vor Gott kannst du nicht flieh'n (Inschallah)
+Inschallah deine Sünden werden verzieh'n</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -873,8 +1436,59 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Intro]Yeah[Part 1]Yeah, man kriegt nicht viele Chancen im Leben, ergreife sie wie TentakelFick dein Business, die Scheiße ist nicht rentabelMeine Erfolg, ja, ich hab' da eine nette FormelWie viele Wichser sind auf meinen Nacken fett geworden?Leere Worte, sie schreiben Stolz, Ehre großAber kotzen, denn sie sind den Goldesel losMann, sie wissen, wie es aussiehtJeder Auftritt, ein ehrfurchtgebietendes SchauspielKing of Kings, sie bestaunen den ThronUnd bilden sich was ein – Münchhausen-SyndromJeder Hundesohn will jetzt seinen Kopf aus der Schlinge zieh’nNur verlogene Fotzen wie Billie JeanHeiße Ware, Bruder, denk nicht, das wär' KleinkramLKA ständig vor der EinfahrtGuck, das ist wie Crack verteilen im Viertel, der Zweck heiligt die MittelStill EGJ, denn ich rappe nicht, ich ficke[Hook]Yeah, ich hab' diesen Traum schon gelebtZwischen Spotlight und BlaulichtsirenenEgal, wie viele Menschen mich verachten oder auch nicht versteh’nEs braucht nur einen Löwen unter tausend HyänenYeah, ich hab' diesen Traum schon gelebtZwischen Spotlight und BlaulichtsirenenYeah, hinterlasse sowohl Asche als auch Staub auf mei'm WegEs braucht nur einen Löwen unter tausend Hyänen
-[Part 2]Was für dich schon arrogant ist, ich wahre nur mein AntlitzGanze vierzig Jahre, doch ich ficke wie mit zwanzig, yeahWas seit Langem schon bekannt istDas B auf meinem Hals ist dein Untergang – AtlantisWeil du ein Schwanz bist, schickst du deine LeuteDamals schon der Teufel, deshalb fickst du dich noch heuteIch war nie ein Rapper, ich hab' für die Straßen gekämpftAuf ein Mal fallen wieder Schüsse aus dem fahrenden BenzEs macht kein'n Unterschied, ob Euro oder DollarVon wegen ich bin unbeliebt, der Beutel, er wird vollerEines Tages Suizid, eure ParanoiaMein Leben lang schon unbesiegt, Diego MaradonaSie tadelten uns, sagen, es wäre entartete KunstDoch ihr Arsch wird gebumstVollkontakt, wer hat Angst? Und ihr müsst jedes Wort hinnehm'nBau' ein Imperium aus Träumen auf wie Walt Disney[Hook]Yeah, ich hab' diesen Traum schon gelebtZwischen Spotlight und BlaulichtsirenenEgal, wie viele Menschen mich verachten oder auch nicht versteh’nEs braucht nur einen Löwen unter tausend HyänenYeah, ich hab’ diesen Traum schon gelebtZwischen Spotlight und BlaulichtsirenenYeah, hinterlasse sowohl Asche als auch Staub auf mei'm WegEs braucht nur einen Löwen unter tausend Hyänen</t>
+          <t>[Intro]
+Yeah
+[Part 1]
+Yeah, man kriegt nicht viele Chancen im Leben, ergreife sie wie Tentakel
+Fick dein Business, die Scheiße ist nicht rentabel
+Meine Erfolg, ja, ich hab' da eine nette Formel
+Wie viele Wichser sind auf meinen Nacken fett geworden?
+Leere Worte, sie schreiben Stolz, Ehre groß
+Aber kotzen, denn sie sind den Goldesel los
+Mann, sie wissen, wie es aussieht
+Jeder Auftritt, ein ehrfurchtgebietendes Schauspiel
+King of Kings, sie bestaunen den Thron
+Und bilden sich was ein – Münchhausen-Syndrom
+Jeder Hundesohn will jetzt seinen Kopf aus der Schlinge zieh’n
+Nur verlogene Fotzen wie Billie Jean
+Heiße Ware, Bruder, denk nicht, das wär' Kleinkram
+LKA ständig vor der Einfahrt
+Guck, das ist wie Crack verteilen im Viertel, der Zweck heiligt die Mittel
+Still EGJ, denn ich rappe nicht, ich ficke
+[Hook]
+Yeah, ich hab' diesen Traum schon gelebt
+Zwischen Spotlight und Blaulichtsirenen
+Egal, wie viele Menschen mich verachten oder auch nicht versteh’n
+Es braucht nur einen Löwen unter tausend Hyänen
+Yeah, ich hab' diesen Traum schon gelebt
+Zwischen Spotlight und Blaulichtsirenen
+Yeah, hinterlasse sowohl Asche als auch Staub auf mei'm Weg
+Es braucht nur einen Löwen unter tausend Hyänen
+[Part 2]
+Was für dich schon arrogant ist, ich wahre nur mein Antlitz
+Ganze vierzig Jahre, doch ich ficke wie mit zwanzig, yeah
+Was seit Langem schon bekannt ist
+Das B auf meinem Hals ist dein Untergang – Atlantis
+Weil du ein Schwanz bist, schickst du deine LeuteDamals schon der Teufel, deshalb fickst du dich noch heute
+Ich war nie ein Rapper, ich hab' für die Straßen gekämpft
+Auf ein Mal fallen wieder Schüsse aus dem fahrenden Benz
+Es macht kein'n Unterschied, ob Euro oder Dollar
+Von wegen ich bin unbeliebt, der Beutel, er wird voller
+Eines Tages Suizid, eure Paranoia
+Mein Leben lang schon unbesiegt, Diego Maradona
+Sie tadelten uns, sagen, es wäre entartete Kunst
+Doch ihr Arsch wird gebumst
+Vollkontakt, wer hat Angst? Und ihr müsst jedes Wort hinnehm'n
+Bau' ein Imperium aus Träumen auf wie Walt Disney
+[Hook]
+Yeah, ich hab' diesen Traum schon gelebt
+Zwischen Spotlight und Blaulichtsirenen
+Egal, wie viele Menschen mich verachten oder auch nicht versteh’n
+Es braucht nur einen Löwen unter tausend Hyänen
+Yeah, ich hab’ diesen Traum schon gelebt
+Zwischen Spotlight und Blaulichtsirenen
+Yeah, hinterlasse sowohl Asche als auch Staub auf mei'm Weg
+Es braucht nur einen Löwen unter tausend Hyänen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -924,9 +1538,73 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Das hier ist das Leben, wir sind so wie wir sindVon klein auf zu was Großem bestimmtEin Vogel im Wind, unendliche FreiheitUnd mein Poster, es hängt an der SkylineBruder, ich bin ehrlich, kann sein, dass ich dich kränkeTut mir nicht leid, ich sag' einfach, was ich denkeYeah, Gott weiß, ich bin aufrichtigUnd ich genieß' jetzt, wie angenehm die Aussicht istIch hab' gekämpft, mich dem Ballast entledigtFür alle Zeiten mein'n Namen verewigtEs braucht nur eine Hand voll gute FreundeUnd paar genauso gute TräumeMan darf es auch nicht leugnen, es fällt nicht immer leichtEs wartet schon der Teufel, wenn Wege sich entzwei'nUnd ich werde nie vergessen, vielleicht irgendwann vergebenYeah, guck, wir ernten, was wir säen[Hook: Bushido]Junge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitten und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der HassJunge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitten und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der Hass, Junge, das hier ist das Leben
-[Part 2: Bushido]Darauf kann dich keiner vorbereitenNichts gelernt, doch ich kann dir ein paar Worte schreibenUnd dir die allerschönsten Orte zeigenDein'n Charakter entschlüsseln, so wie MorsezeichenWas ist Glück? Ein Moment für die UnendlichkeitIch bin das Kämpfen leid, zeig mir, wie man Hände reichtFrüher war mir alles gleich, ständig eine Waffe beiHeute jeder Tag wie das Emoji, das vor Lachen weintTotgesagt, doch am Start so wie nie zu vorMeine Schutzengel singen zarte Melodien im ChorSag, wo ist die Zeit hin, in der ich kugelsicher war?Gerade Anfang zwanzig, wusste, nun bin ich ein StarEpische Werke in der DiskographieDeutscher Rap ist nicht Ghetto, denn die Nutte weiß noch immer nicht wieYeah, manche werden's nie versteh'nGuck, wir ernten, was wir säen[Hook: Bushido]Junge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitten und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der HassJunge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitte und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der Hass, Junge, das hier ist das Leben
-[Bridge: Capital Bra]Ein Traum in meinem Kopf (na na na, na na na)Es gibt keinen, der mich hindert (na na na na)Ich bete nur zu Gott (ich bete nur zu Gott)Für das Lächeln meiner Kinder (na na na na)Eure Gesichter sind betäubt (eure Gesichter sind betäubt)Und die Herzen sind verbittert (na na na na)Die Schutzengel sing'n (ja, sie sing'n, ja)Und der Teufel, er zittert[Hook: Bushido]Junge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitten und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der HassJunge, das hier ist das Leben, der Tod, das Lachen, die TränenDer Streit, das Leiden, das Bitte und FlehenDie Freude, das Tanzen, das Träumen vom Großen und GanzenDie Liebe, der Hass, Junge, das hier ist das Leben</t>
+          <t>[Part 1: Bushido]
+Das hier ist das Leben, wir sind so wie wir sind
+Von klein auf zu was Großem bestimmt
+Ein Vogel im Wind, unendliche Freiheit
+Und mein Poster, es hängt an der Skyline
+Bruder, ich bin ehrlich, kann sein, dass ich dich kränke
+Tut mir nicht leid, ich sag' einfach, was ich denke
+Yeah, Gott weiß, ich bin aufrichtig
+Und ich genieß' jetzt, wie angenehm die Aussicht ist
+Ich hab' gekämpft, mich dem Ballast entledigt
+Für alle Zeiten mein'n Namen verewigt
+Es braucht nur eine Hand voll gute Freunde
+Und paar genauso gute Träume
+Man darf es auch nicht leugnen, es fällt nicht immer leicht
+Es wartet schon der Teufel, wenn Wege sich entzwei'n
+Und ich werde nie vergessen, vielleicht irgendwann vergeben
+Yeah, guck, wir ernten, was wir säen
+[Hook: Bushido]
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitten und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitten und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass, Junge, das hier ist das Leben
+[Part 2: Bushido]
+Darauf kann dich keiner vorbereiten
+Nichts gelernt, doch ich kann dir ein paar Worte schreiben
+Und dir die allerschönsten Orte zeigen
+Dein'n Charakter entschlüsseln, so wie Morsezeichen
+Was ist Glück? Ein Moment für die UnendlichkeitIch bin das Kämpfen leid, zeig mir, wie man Hände reichtFrüher war mir alles gleich, ständig eine Waffe beiHeute jeder Tag wie das Emoji, das vor Lachen weint
+Totgesagt, doch am Start so wie nie zu vor
+Meine Schutzengel singen zarte Melodien im Chor
+Sag, wo ist die Zeit hin, in der ich kugelsicher war?
+Gerade Anfang zwanzig, wusste, nun bin ich ein Star
+Epische Werke in der Diskographie
+Deutscher Rap ist nicht Ghetto, denn die Nutte weiß noch immer nicht wie
+Yeah, manche werden's nie versteh'n
+Guck, wir ernten, was wir säen
+[Hook: Bushido]
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitten und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitte und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass, Junge, das hier ist das Leben
+[Bridge: Capital Bra]
+Ein Traum in meinem Kopf (na na na, na na na)
+Es gibt keinen, der mich hindert (na na na na)
+Ich bete nur zu Gott (ich bete nur zu Gott)
+Für das Lächeln meiner Kinder (na na na na)
+Eure Gesichter sind betäubt (eure Gesichter sind betäubt)
+Und die Herzen sind verbittert (na na na na)
+Die Schutzengel sing'n (ja, sie sing'n, ja)
+Und der Teufel, er zittert
+[Hook: Bushido]
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitten und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass
+Junge, das hier ist das Leben, der Tod, das Lachen, die Tränen
+Der Streit, das Leiden, das Bitte und Flehen
+Die Freude, das Tanzen, das Träumen vom Großen und Ganzen
+Die Liebe, der Hass, Junge, das hier ist das Leben</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -976,9 +1654,68 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Intro]Yeah[Part 1]Denn so lange dieses Licht noch nicht erloschen istWeiß ich, dass das letzte Wort dieser Geschichte noch nicht gesprochen istDu wirst gefickt, weil du 'ne Fotze bistNie wieder erfolgreich, sie hoffen esImmer wieder Beef, nie sah man mich davonrennenVielleicht end' ich eines Tages so wie John LennonKeine Ahnung, Mann, warum mich diese Cops kenn'nStalken, so als würde ich bewaffnet in den Shop renn'nRapper sterben, wenn ich Drive-by-Strophen kickeTheoretisch wie die Einstein-Rosen-BrückeIch bin 'ne Ein-Mann-ArmeeUnd sie würden alles geben, um mich scheitern zu seh'nNeben mei'm sieht dein Business wie Pfandflaschensammeln ausErst fick' ich dich weg und dann all die andern auchPunch in die Rippen, in die Bank mit 'ner Smith &amp;Wir hab'n kein Gewissen, yeah[Hook]Ich hab' so ein Gefühl, noch ist hier nicht SchlussEin graues Haar für jeden, der gefickt werden mussIch kann es spür'n, das hier ist noch nicht vorbeiEin graues Haar für jeden neuen FeindUnd ja, der Schein trügt, vielleicht hört es nie aufDie Kugel im Lauf, guck zu, wie es rauchtEin graues Haar für jeden, der versucht sich zu trau'nEure Lichter, ich puste sie aus
-[Part 2]Skrupelloser Junge, immer volles MagazinSmog in der Lunge, lila Rolle in den Jeans, yeahFür mich reichen deine Scheine nicht ausMit der Platinkarte hacke ich die Steine zu StaubPate auf der Straße wie die Räder meines BentleysKnarre und Zigarre wie ein Gangster aus den TwentiesCarlo-Koka-Turn-Life und die Seiten nullDenn seit 2003 ist die Scheiße KultMach den Kopf runter, wenn du mit mir reden willstSelbstreflektiert, jeder Zweite ist mein EbenbildIch verstehe nicht, worin ihr hier den Sinn suchtFick deine Mutter, Junge, nach mir die SintflutSo soll es sein, ich mach' einfach meinen JobKomm' ich rein, shaken Rapper so wie Michael J. FoxEGJ, hier ist nicht nur alles Show, DickaWir schreiben Geschichte wie Historiker[Hook]Ich hab' so ein Gefühl, noch ist hier nicht SchlussEin graues Haar für jeden, der gefickt werden mussIch kann es spür'n, das hier ist noch nicht vorbeiEin graues Haar für jeden neuen FeindUnd ja, der Schein trügt, vielleicht hört es nie aufDie Kugel im Lauf, guck zu, wie es rauchtEin graues Haar für jeden, der versucht sich zu trau'nEure Lichter, ich puste sie aus
-[Hook]Ich hab' so ein Gefühl, noch ist hier nicht SchlussEin graues Haar für jeden, der gefickt werden mussIch kann es spür'n, das hier ist noch nicht vorbeiEin graues Haar für jeden neuen FeindUnd ja, der Schein trügt, vielleicht hört es nie aufDie Kugel im Lauf, guck zu, wie es rauchtEin graues Haar für jeden, der versucht sich zu trau'nEure Lichter, ich puste sie aus</t>
+          <t>[Intro]
+Yeah
+[Part 1]
+Denn so lange dieses Licht noch nicht erloschen ist
+Weiß ich, dass das letzte Wort dieser Geschichte noch nicht gesprochen ist
+Du wirst gefickt, weil du 'ne Fotze bist
+Nie wieder erfolgreich, sie hoffen es
+Immer wieder Beef, nie sah man mich davonrennen
+Vielleicht end' ich eines Tages so wie John Lennon
+Keine Ahnung, Mann, warum mich diese Cops kenn'n
+Stalken, so als würde ich bewaffnet in den Shop renn'n
+Rapper sterben, wenn ich Drive-by-Strophen kickeTheoretisch wie die Einstein-Rosen-Brücke
+Ich bin 'ne Ein-Mann-Armee
+Und sie würden alles geben, um mich scheitern zu seh'n
+Neben mei'm sieht dein Business wie Pfandflaschensammeln aus
+Erst fick' ich dich weg und dann all die andern auch
+Punch in die Rippen, in die Bank mit 'nerSmith &amp;
+Wir hab'n kein Gewissen, yeah
+[Hook]
+Ich hab' so ein Gefühl, noch ist hier nicht Schluss
+Ein graues Haar für jeden, der gefickt werden muss
+Ich kann es spür'n, das hier ist noch nicht vorbei
+Ein graues Haar für jeden neuen Feind
+Und ja, der Schein trügt, vielleicht hört es nie auf
+Die Kugel im Lauf, guck zu, wie es raucht
+Ein graues Haar für jeden, der versucht sich zu trau'n
+Eure Lichter, ich puste sie aus
+[Part 2]
+Skrupelloser Junge, immer volles Magazin
+Smog in der Lunge, lila Rolle in den Jeans, yeah
+Für mich reichen deine Scheine nicht aus
+Mit der Platinkarte hacke ich die Steine zu Staub
+Pate auf der Straße wie die Räder meines Bentleys
+Knarre und Zigarre wie ein Gangster aus den Twenties
+Carlo-Koka-Turn-Life und die Seiten null
+Denn seit 2003 ist die Scheiße Kult
+Mach den Kopf runter, wenn du mit mir reden willst
+Selbstreflektiert, jeder Zweite ist mein Ebenbild
+Ich verstehe nicht, worin ihr hier den Sinn sucht
+Fick deine Mutter, Junge, nach mir die Sintflut
+So soll es sein, ich mach' einfach meinen Job
+Komm' ich rein, shaken Rapper so wie Michael J. Fox
+EGJ, hier ist nicht nur alles Show, Dicka
+Wir schreiben Geschichte wie Historiker
+[Hook]
+Ich hab' so ein Gefühl, noch ist hier nicht Schluss
+Ein graues Haar für jeden, der gefickt werden muss
+Ich kann es spür'n, das hier ist noch nicht vorbei
+Ein graues Haar für jeden neuen Feind
+Und ja, der Schein trügt, vielleicht hört es nie auf
+Die Kugel im Lauf, guck zu, wie es raucht
+Ein graues Haar für jeden, der versucht sich zu trau'n
+Eure Lichter, ich puste sie aus
+[Hook]
+Ich hab' so ein Gefühl, noch ist hier nicht Schluss
+Ein graues Haar für jeden, der gefickt werden muss
+Ich kann es spür'n, das hier ist noch nicht vorbei
+Ein graues Haar für jeden neuen Feind
+Und ja, der Schein trügt, vielleicht hört es nie auf
+Die Kugel im Lauf, guck zu, wie es raucht
+Ein graues Haar für jeden, der versucht sich zu trau'n
+Eure Lichter, ich puste sie aus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1028,10 +1765,94 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Intro: Akon]Yeah, yeah[Hook: Akon]I started at zeroHad to be my own heroNow I'm pulling off in that new redShe whiter than a kiloI'm headed off to the NorthsideHad to show a lot to my peopleTell my day ones we gon' be fineWho need a pistol when you got a Desert Eagle?[Part 1: Akon]You know I gotta work, I make a billion dollar fightFuck a jet, I got an airlineCouple bad bitches in the air, pussy poppin'I pray for shit like that my whole lifeSay it girl, are you, are you shook?'Cause she all up on my FaceTimeScreamin', "Daddy, come and get it!"Nigga, get on your job, I ain't got the time[Pre-Hook: Akon]I'm just tryin' to make historyHistoryNigga, I'm just tryin' to make historyHistory
-[Hook: Akon]I started at zeroHad to be my own heroNow I'm pulling off in that new redShe whiter than a kiloI'm headed off to the NorthsideHad to show a lot to my peopleTell my day ones we gon' be fineWho need a pistol when you got a Desert Eagle?[Part 2: Bushido]Yeah, ich geh' ins KaDeWe mit Veysel, Otavio, mit AshrafUnd einfach im Vorbeifahr'n fick' ich dich, du BastardNie wieder bin ich einsam, Ticket in den Knast, MannRuf nicht nach den Geistern, denn wenn sie komm'n, was dann?Junge, das ist Gangsterrap, morgens Action am CornerZehn schneeweiße Päckchen geordertGeschäfte laufen, denn ich kenn' mich damit ausMich fickst du nicht so einfach wie Marsellus Wallace' Frau, MannIch fick', wenn ich rapp', das war immer soGhetto so wie Spritzenbesteck auf dem HinterhofDu bist nur ein Fixer, du Kek, ich muss ehrlich seinYeah, Fame ist wie Unsterblichkeit[Pre-Hook: Akon]I'm just tryin' to make historyHistoryNigga, I'm just tryin' to make historyHistory
-[Hook: Akon]I started at zeroHad to be my own heroNow I'm pulling off in that new redShe whiter than a kiloI'm headed off to the NorthsideHad to show a lot to my peopleTell my day ones we gon' be fineWho need a pistol when you got a Desert Eagle?[Part 3: Bushido]Ich geh' ins Studio mit Samra, hol' Issa aus der KitaGott weiß, ich bin dankbar, ab jetzt nur noch LilaDie AK im Anschlag, wir seh'n uns nie wiederKlick-bam-bam, Schüsse fallen auf den DealerIch hab' jahrelang gehustlet für Bares in der TascheHeute zieh' ich meine Visa ohne Limit durch die KasseAsozial sein Vater, Lächeln eines SiegersDoch das hier ist kein Spaß, Mann, Weg eines KriegersLebende Legende, sagen sie da draußenSteig' in meinen Bentley, fahr' sie übern HaufenKeine Empathie, tut mir leid, ich muss ehrlich seinYeah, Fame ist wie Unsterblichkeit[Pre-Hook: Akon]I'm just tryin' to make historyHistoryNigga, I'm just tryin' to make historyHistory
-[Hook: Akon]I started at zeroHad to be my own heroNow I'm pulling off in that new redShe whiter than a kiloI'm headed off to the NorthsideHad to show a lot to my peopleTell my day ones we gon' be fineWho need a pistol when you got a Desert Eagle?</t>
+          <t>[Intro: Akon]
+Yeah, yeah
+[Hook: Akon]
+I started at zero
+Had to be my own hero
+Now I'm pulling off in that new red
+She whiter than a kilo
+I'm headed off to the Northside
+Had to show a lot to my people
+Tell my day ones we gon' be fine
+Who need a pistol when you got a Desert Eagle?
+[Part 1: Akon]
+You know I gotta work, I make a billion dollar fight
+Fuck a jet, I got an airline
+Couple bad bitches in the air, pussy poppin'
+I pray for shit like that my whole life
+Say it girl, are you, are you shook?
+'Cause she all up on my FaceTime
+Screamin', "Daddy, come and get it!"
+Nigga, get on your job, I ain't got the time
+[Pre-Hook: Akon]
+I'm just tryin' to make history
+History
+Nigga, I'm just tryin' to make history
+History
+[Hook: Akon]
+I started at zero
+Had to be my own hero
+Now I'm pulling off in that new red
+She whiter than a kilo
+I'm headed off to the Northside
+Had to show a lot to my people
+Tell my day ones we gon' be fine
+Who need a pistol when you got a Desert Eagle?
+[Part 2: Bushido]
+Yeah, ich geh' ins KaDeWe mit Veysel, Otavio, mit Ashraf
+Und einfach im Vorbeifahr'n fick' ich dich, du Bastard
+Nie wieder bin ich einsam, Ticket in den Knast, Mann
+Ruf nicht nach den Geistern, denn wenn sie komm'n, was dann?
+Junge, das ist Gangsterrap, morgens Action am Corner
+Zehn schneeweiße Päckchen geordert
+Geschäfte laufen, denn ich kenn' mich damit aus
+Mich fickst du nicht so einfach wie Marsellus Wallace' Frau, Mann
+Ich fick', wenn ich rapp', das war immer so
+Ghetto so wie Spritzenbesteck auf dem Hinterhof
+Du bist nur ein Fixer, du Kek, ich muss ehrlich sein
+Yeah, Fame ist wie Unsterblichkeit
+[Pre-Hook: Akon]
+I'm just tryin' to make history
+History
+Nigga, I'm just tryin' to make history
+History
+[Hook: Akon]
+I started at zero
+Had to be my own hero
+Now I'm pulling off in that new red
+She whiter than a kilo
+I'm headed off to the Northside
+Had to show a lot to my people
+Tell my day ones we gon' be fine
+Who need a pistol when you got a Desert Eagle?
+[Part 3: Bushido]
+Ich geh' ins Studio mit Samra, hol' Issa aus der Kita
+Gott weiß, ich bin dankbar, ab jetzt nur noch Lila
+Die AK im Anschlag, wir seh'n uns nie wieder
+Klick-bam-bam, Schüsse fallen auf den Dealer
+Ich hab' jahrelang gehustlet für Bares in der Tasche
+Heute zieh' ich meine Visa ohne Limit durch die Kasse
+Asozial sein Vater, Lächeln eines Siegers
+Doch das hier ist kein Spaß, Mann, Weg eines Kriegers
+Lebende Legende, sagen sie da draußen
+Steig' in meinen Bentley, fahr' sie übern Haufen
+Keine Empathie, tut mir leid, ich muss ehrlich sein
+Yeah, Fame ist wie Unsterblichkeit
+[Pre-Hook: Akon]
+I'm just tryin' to make history
+History
+Nigga, I'm just tryin' to make history
+History
+[Hook: Akon]
+I started at zero
+Had to be my own hero
+Now I'm pulling off in that new red
+She whiter than a kilo
+I'm headed off to the Northside
+Had to show a lot to my people
+Tell my day ones we gon' be fine
+Who need a pistol when you got a Desert Eagle?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1081,8 +1902,62 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Intro]Yeah[Part 1]Kein Ende in Sicht, immer noch auf KonfrontationskursUnd die Singles laufen auf RotationskursNichts, was mich satt machen könnteNichts stillt meinen InformationsdurstSeit meiner Kindheit wusst' ich, eines Tages würd' ich King seinUnd wer das nicht sah, musste blind seinIch ging zur Schule, doch der Unterricht hat nichts getaugtIch bin heute so, denn meine Mutter hat an mich geglaubtDamals hatte ich nur eine MissionMach den Einhundert-Mark-Schein zu einer Million'98 gefickt, heute zwanzigster JahrestagBushidos B bekannter als das letzte AbendmahlDanke Mama, ich weiß, dass du mich siehstAn meinem vierzigsten Geburtstag feiern wir ReleaseWie die Zeit rennt und ich weineHinterlasse meine Feinde[Hook]Geblendet vom LichtSo viele Schlachten und KriegeIn denen ich schon kämpfte für dichUnd dennoch kein Ende in Sicht, kein Ende in SichtGeblendet vom LichtBitterkalt sind die SchattenUmgeben von Schlangen, Parasiten und RattenEs ändert sich nichts, yeahImmer noch kein, noch immer kein Ende in Sicht
-[Part 2]Yeah, kein Ende in Sicht und immer noch am Leben, wie du siehstAm Maßstäbe setzen wie GeologieDie Krone wiegt schwer, du willst nicht auf den ThronHab' wohl möglich das bekannteste Gesicht in der NationIch hab' die Szene geprägt wie kein ZweiterDoch leider wollen sie nur seh'n, wie ich scheiter'Hatte den Maybach in meiner EinfahrtDoch jeder Dreizehnte war für mich ein FreitagEs hört nicht auf, immer wieder ein ProblemDoch meine Kinder lassen mich die Welt mit ihren Augen seh'nAaliyah schaut auf und fragt nach den Stern'nIhre Welt lässt sie sich von ihrem Vater erklär'nDanke Anni, ich weiß, dass du mich liebstMit dir an meiner Seite zieh' ich einfach in den KriegWie die Zeit rennt, guck, wir beideHinterlassen unsre Feinde[Hook]Geblendet vom LichtSo viele Schlachten und KriegeIn denen ich schon kämpfte für dichUnd dennoch kein Ende in Sicht, kein Ende in SichtGeblendet vom LichtBitterkalt sind die SchattenUmgeben von Schlangen, Parasiten und RattenEs ändert sich nichts, yeahImmer noch kein, noch immer kein Ende in Sicht</t>
+          <t>[Intro]
+Yeah
+[Part 1]
+Kein Ende in Sicht, immer noch auf Konfrontationskurs
+Und die Singles laufen auf Rotationskurs
+Nichts, was mich satt machen könnte
+Nichts stillt meinen Informationsdurst
+Seit meiner Kindheit wusst' ich, eines Tages würd' ich King sein
+Und wer das nicht sah, musste blind sein
+Ich ging zur Schule, doch der Unterricht hat nichts getaugt
+Ich bin heute so, denn meine Mutter hat an mich geglaubt
+Damals hatte ich nur eine Mission
+Mach den Einhundert-Mark-Schein zu einer Million
+'98 gefickt, heute zwanzigster Jahrestag
+Bushidos B bekannter als das letzte Abendmahl
+Danke Mama, ich weiß, dass du mich siehst
+Anmeinemvierzigsten Geburtstag feiern wir Release
+Wie die Zeit rennt und ich weine
+Hinterlasse meine Feinde
+[Hook]
+Geblendet vom Licht
+So viele Schlachten und Kriege
+In denen ich schon kämpfte für dich
+Und dennoch kein Ende in Sicht, kein Ende in Sicht
+Geblendet vom Licht
+Bitterkalt sind die Schatten
+Umgeben von Schlangen, Parasiten und Ratten
+Es ändert sich nichts, yeah
+Immer noch kein, noch immer kein Ende in Sicht
+[Part 2]
+Yeah, kein Ende in Sicht und immer noch am Leben, wie du siehst
+Am Maßstäbe setzen wie Geologie
+Die Krone wiegt schwer, du willst nicht auf den Thron
+Hab' wohl möglich das bekannteste Gesicht in der Nation
+Ich hab' die Szene geprägt wie kein Zweiter
+Doch leider wollen sie nur seh'n, wie ich scheiter'
+Hatte den Maybach in meiner Einfahrt
+Doch jeder Dreizehnte war für mich ein Freitag
+Es hört nicht auf, immer wieder ein Problem
+Doch meine Kinder lassen mich die Welt mit ihren Augen seh'n
+Aaliyah schaut auf und fragt nach den Stern'n
+Ihre Welt lässt sie sich von ihrem Vater erklär'n
+Danke Anni, ich weiß, dass du mich liebst
+Mit dir an meiner Seite zieh' ich einfach in den Krieg
+Wie die Zeit rennt, guck, wir beide
+Hinterlassen unsre Feinde
+[Hook]
+Geblendet vom Licht
+So viele Schlachten und Kriege
+In denen ich schon kämpfte für dich
+Und dennoch kein Ende in Sicht, kein Ende in Sicht
+Geblendet vom Licht
+Bitterkalt sind die Schatten
+Umgeben von Schlangen, Parasiten und Ratten
+Es ändert sich nichts, yeah
+Immer noch kein, noch immer kein Ende in Sicht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1132,8 +2007,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Intro]Yeah[Part 1]Zwischen all dem Schmutz und dem Abschaum damals in BerlinGab es diesen Jung'nEs war seine Vision und kein Tagtraum, er wollt' es sich verdien'nUnd zwar aus gutem GrundSeine Mutter war alleinerziehend, sein Bruder viel kleiner als erUnd genau deswegen mussten diese Scheine jetzt herDoch sein Label wollte ihn nicht mehr bezahl'nAlso blieb ihm keine WahlEr fragte auf der Straße verzweifelt nach BeistandEs wurde zu 'nem Wettlauf, der Junge vereinsamtDie Schatten wurden größer und Lichtblicke rarDer Raum wurde kalt, als Mephisto ihn sahEr könnt' es für ihn klär'n, darauf gab er ihm sein Wort„Denk an deine Zukunft, du willst weg von diesem OrtMach dich auf die Reise, dreh dich nicht mehr umHör nicht mehr auf andere, frag nicht mehr, warumDu kannst haben, was du willst, gib mir einfach die BefehleIch will nicht viel von dir, nur am Ende deine Seele“Der Junge überlegte, zu wenig sprach dagegenHeute weiß er, damals trat der Teufel in sein LebenVergessen war'n die Tränen, er fühlte sich geborgenAuf einmal musste er sich um die Zukunft nicht mehr sorgenDer neue Sound Electro, der Junge aus dem GhettoEr wurde zum Geschäftsmann, aus Brutto wurde NettoIn Deutschland herrschte Chaos, er machte sich zum StaatsfeindDie Rolle seines Lebens – Joker, Dark KnightJeder wollt' ihm nah sein, die Wörter wurden GoldBlut, Schweiß und Trän'n, die Lawine kam ins RollenDie Seele war verkauft, der Junge stieg auf seinen ThronFür viele ein Idol, doch seine Freiheit IllusionMephisto hatte Pläne, der König der HyänenDie Schlange, der Apfel im Garten von EdenDie Kurve ging nach oben, die Wörter wurden PlatinGewissensbisse gab's nicht, wer Faxen machte, schlag ihnDie Geister, die er rief, sie forderten TributIn den Köpfen diese Stimm'n, an den Händen dieses BlutDie Nächte wurden länger, am Himmel keine SterneEgal, wohin er kommt, überall verbrannte ErdeAlles kalkuliert, denn am Ende war's kein GlückEs ging von der Skyline zum Bordstein zurückDas Jahr 2007, am Ku'damm ein PlakatDas ganze Land begriff jetzt, der Junge war am StartRekorde fall'n und plötzlich war der Himmel seine GrenzeEin Leben ohne Limit, bis der Typ kommt mit der SenseWie sagt man so schön, Hochmut kommt meistens vor dem FallUnd irgendwie war's Karma auf einmal überallDiese Dinge, die passierten, seine Mutter wurde krankVergessen war'n die Preise, keine Freude, nur noch AngstMephisto kam's gelegen, denn Not macht ein'n verletzlichEr gab sein Bestes, „Hör mal, mein Junge, komm und setz dichDu kannst auf mich vertrau'n, ich lieb' dich wie ein Vater den SohnGemeinsam machen wir jetzt Abermillion'n“Er hörte, was er sagte, und tötete die ZweifelDem Teufel gegenüber, der Engel war zu leiseMit jedem Tag verlor er sich selbst ein bisschen mehrDenn nichts war so wie vorher, vergiftet war sein HerzBetäubt und ohne Rücksicht, verzweifelt auf der SucheNicht leicht zu unterscheiden, das Böse von dem GutenEr opferte fast alles fürs schnelle Leben, asapKettensägen Massaker, Heavy Metal PaybackGlaub mir, Zeiten ändern sich und plötzlich auch MephistoVerlockend war das Rampenlicht und langsam wurd' er schizoEr wollte eine Bühne, seine Fratze auf der LeinwandRiss die Zügel an sich, akzeptierte keinen EinwandEin Teufel und Diktator,  nach außen immer höflichSeine tausenden Gesichter zu durchschauen war nicht möglichEin Meister der Intrigen, gespalten seine ZungeDer Schlüssel des Erfolges war schon immer nur der JungeUnd viele Jahre lief es, drehten sich die RädchenBis zum ersten Februar, der Junge traf ein MädchenSie würde vieles ändern und irgendwie geschah esDass sie an seiner Seite blieb, endlich etwas WahresZwischen all den Lügen und finsteren GestaltenDer Junge wurde Vater und nichts blieb mehr beim AltenMephisto säte Zwietracht und zog alle RegisterAuf einmal war er Anwalt, Kläger sowie RichterEs brach einem das Herz, den Jungen traf das SchicksalAls seine Mutter starb, nur noch trauernde GesichterEr floh vor der Familie, es schlug Mephistos StundeUnd alles, was er liebte, ging allmählich vor die HundeEr fing sich an zu streiten, im Endeffekt für gar nixVersetzte das Mädchen in regelrechte PanikSie erkannte ihn nicht wieder, was war bloß aus ihm geworden?Das letzte bisschen Hoffnung zwischen ihnen war gestorbenSie fiel auf ihre Knie, zu viel Last auf ihren SchulternSie weinte, denn sie wusste ganz genau, wer daran schuld warDoch niemand hörte zu, als sie warnte und flehteEin Engel ohne Flügel sang klare GebeteMephisto, der Teufel, ein Lügner ohnegleichenFür die Seele dieses Jungen ging er wieder über LeichenDie Ehe lag in Scherben, er hatte, was er wollteUnd ließ ihn nicht mehr los wie ein Wolf seine BeuteUnd so kam es, dass der Schatten ein Stück mehr von ihm Besitz nahmZimmer gab es viele, aber niemand macht das Licht anEgal, was er versuchte, er versank in Depression'nSeine ständigen Begleiter waren Geister und Dämon'nEr versagte sich dem Leben, weitermachen war nicht möglichDie Frage, die ihn quälte: Weshalb war er nur so töricht?Ihm fehlten seine Kinder, sein Mädchen, seine MamaAm Telefon erfuhr der Junge, sie war wieder schwangerEr musste sie zurückgewinn'n und wusste, was zu tun warDer Einzige, der das nicht wollte, war sein falscher BruderMephisto wurde zornig, als er davon erfuhrEr wollte es verhindern, von Gewissen keine SpurDie Waffen, die er nutzte, waren schrecklich egoistischFassade noch zu wahren, war von jetzt an nicht mehr wichtigEr ließ es darauf ankomm'n und sprengte seine KettenErhob die Stimme jetzt, um die Familie zu rettenDas erste Mal seit Jahren bekam das Mädchen wirklichDen gebührenden Respekt, denn wahre Liebe stirbt nichtDie Narben saßen tief, doch der Feind war jetzt derselbeGemeinsam durch den Regen, den Sturm und auch die KälteSie waren voller Zuversicht, mutig und entschlossenEr gab ihr ein Versprechen und es wurde nicht gebrochenUnd da verlor Mephisto den Schrecken alter TageKrallen einer Ratte, schwarze Flügel wie ein RabeSeine Maske fiel, so sah man seine wahre GestaltEr war ein Monster aus Feuer, doch sein Atem war kaltEs ging um Leben und Tod, der Junge zog in den KampfDes Teufels Pläne allesamt in den Boden gestampft
-[Part 2]Fünfzehn Jahre später, der Junge fast vierzigFast alle seine Träume inzwischen verwirklichtKinder hat er fünf, Scheine hat er vieleEhejahre sechs, geheiratet aus LiebeSoloalben dreizehn, das Gold liegt im KellerTalent bringt noch immer das Brot auf den TellerDas Leben könnt' so schön sein, unbeschwert die WegeHätte nur Mephisto nicht noch immer seine SeeleVerschlossen und versenkt, verloren in den Tiefen des OzeansEr würde sogar mit dem Tod bezahl'nDenn er hat keine Angst, nur weil sein Gegner vorher nie am Boden lagGenau wie damals – David gegen GoliathDie Stimmen der Engel, sie singen im ChorIhre Seelen, sie stiegen zum Himmel emporUnd erzählen Geschichten vom Teufel vor OrtWie ein Junge aus Leichtsinn fast alles verlorDenn es gab Zeiten, da folgte er Mephisto wie blindHörte die Lügen immer wieder wie das Flüstern im WindWurde genauso wie er, gab den Widerstand aufJetzt muss er vieles graderücken, weil ihm niemand mehr glaubtSo viele Menschen erniedrigt, sich unfair verhaltenAuf dem Weg ihres Erfolges liegen hunderte LeichenMan schrieb und suchte die Fehler, die sie machtenUnmöglich, die Dinge aus der Ferne zu betrachtenDoch heute hat der Junge die nötige DistanzDas Bild in der Gesamtheit ungeschönt und ohne GlanzUnd heute sieht Mephisto, das Schicksal nimmt sein'n LaufAuch er kann nichts dran ändern, kein Feuer ohne RauchEr hat gewütet und am Ende Schutt und Asche hinterlassenEr gab dem Jungen mehr als einen Grund, um ihn zu hassenUnterwarf ihn seinem Willen, ständige KontrolleDass er daran erstickte, spielt am Ende keine RolleAbscheulich all die Dinge, die er billigend in Kauf nahmLebte von den Menschen, die wahrhaftig zu ihm aufsah'nEin Blender, dem das Geld zu Kopf gestiegen istDer so viel hat, aber trotzdem nie zufrieden istDer niemals schläft, der Preis für seinen FrevelAuf ewig soll er wandern durch Täler voller SchwefelZusamm'n mit seines Gleichen, auf dass sie nie mehr heimkehr'nNie mehr wieder wird er diesen Jungen nochmal einsperr'nDas Ende einer Herrschaft, selbsternannter KönigDie Welt wird ihn vergessen, nicht mehr außer-, nur gewöhnlichWer ist ihm noch geblieben? Seine Heerscharen fliehenGütig, barmherzig, er selbst war es nieDie Angst war sein Hammer, die List war sein MeißelSein kranker Verstand war nicht zu begreifenUnfassbar, wie boshaft, seht euch sein Werk anHunderte Seelen, da unten in Kerkern, yeahJeder weiß, der Teufel hat sein eigenes MotivDas Leid, das er Menschen zufügt, ist sein ProfitDer Junge hätte lieber seine Finger davon lassen soll'nDoch stattdessen machte er Mephistos Taschen vollEr hat genug bezahlt, blieb keinem etwas schuldigEgal, wie sehr es weh tat, der Junge blieb geduldigVon jetzt an keine Kompromisse mehrDissen ohne Namen nenn'n, glaub mir mal, sie wissen, werDie Seele dieses Jungen genomm'n hat aus GierEr muss akzeptier'n, niemals wieder wirDiese Zeilen komm'n von Herzen an Mephisto addressiertEr war nie ein wahrer Freund, nur ein rücksichtsloses TierAm Himmel kreisen Geier, eine Ära geht zu EndeSo wurde aus dem Jung'n eine lebende LegendeEr nahm den Mut zusammen und stellte sich sein'n ÄngstenKeine Maskerade, denn die Wahrheit währt am längstenEr machte reinen Tisch, ein für alle MalSein Herz weiß, man kann mit der Seele nicht bezahl'nAlso holt er sie zurück, der Deal war hiermit nichtigDamit am Ende dieses Tunnels endlich wieder Licht istUnd siehe da, das Leben war wieder voller FarbenSo viele neue Wege, die sich ihm nun offenbartenEr blickt nicht mehr zurück, das Kapitel ist GeschichteVon dem dann seine Enkelkinder irgendwann berichtenMan wird von ihm erzählen, „Er war ein guter JungeMit Wut in seiner Lunge und dem Herzen auf der ZungeDie Fehler, die er machte, sind tief in ihm verankertFür jeden Tag mit der Familie ist er dankbar“Denn es geschehen Dinge, die meisten Leute zweifelnVerständlich, dass viele von ihnen für die Wahrheit nicht bereit sindDer größte Trick des Teufels, mal abseits seiner PläneWar die Menschheit glauben lassen, dass es ihn nicht gäbe</t>
+          <t>[Intro]
+Yeah
+[Part 1]
+Zwischen all dem Schmutz und dem Abschaum damals in BerlinGab es diesen Jung'nEs war seine Vision und kein Tagtraum, er wollt' es sich verdien'nUnd zwar aus gutem GrundSeine Mutter war alleinerziehend, sein Bruder viel kleiner als erUnd genau deswegen mussten diese Scheine jetzt herDoch sein Label wollte ihn nicht mehr bezahl'nAlso blieb ihm keine WahlEr fragte auf der Straße verzweifelt nach BeistandEs wurde zu 'nem Wettlauf, der Junge vereinsamtDie Schatten wurden größer und Lichtblicke rarDer Raum wurde kalt, als Mephisto ihn sahEr könnt' es für ihn klär'n, darauf gab er ihm sein Wort„Denk an deine Zukunft, du willst weg von diesem OrtMach dich auf die Reise, dreh dich nicht mehr umHör nicht mehr auf andere, frag nicht mehr, warumDu kannst haben, was du willst, gib mir einfach die BefehleIch will nicht viel von dir, nur am Ende deine Seele“Der Junge überlegte, zu wenig sprach dagegenHeute weiß er, damals trat der Teufel in sein LebenVergessen war'n die Tränen, er fühlte sich geborgenAuf einmal musste er sich um die Zukunft nicht mehr sorgenDer neue Sound Electro, der Junge aus dem GhettoEr wurde zum Geschäftsmann, aus Brutto wurde Netto
+In Deutschland herrschte Chaos, er machte sich zum StaatsfeindDie Rolle seines Lebens – Joker, Dark Knight
+Jeder wollt' ihm nah sein, die Wörter wurden GoldBlut, Schweiß und Trän'n, die Lawine kam ins RollenDie Seele war verkauft, der Junge stieg auf seinen ThronFür viele ein Idol, doch seine Freiheit IllusionMephisto hatte Pläne, der König der HyänenDie Schlange, der Apfel im Garten von EdenDie Kurve ging nach oben, die Wörter wurden PlatinGewissensbisse gab's nicht, wer Faxen machte, schlag ihnDie Geister, die er rief, sie forderten TributIn den Köpfen diese Stimm'n, an den Händen dieses BlutDie Nächte wurden länger, am Himmel keine SterneEgal, wohin er kommt, überall verbrannte ErdeAlles kalkuliert, denn am Ende war's kein Glück
+Es ging von der Skyline zum Bordstein zurück
+Das Jahr 2007, am Ku'damm ein PlakatDas ganze Land begriff jetzt, der Junge war am StartRekorde fall'n und plötzlich war der Himmel seine GrenzeEin Leben ohne Limit, bis der Typ kommt mit der SenseWie sagt man so schön, Hochmut kommt meistens vor dem FallUnd irgendwie war's Karma auf einmal überallDiese Dinge, die passierten, seine Mutter wurde krankVergessen war'n die Preise, keine Freude, nur noch AngstMephisto kam's gelegen, denn Not macht ein'n verletzlichEr gab sein Bestes, „Hör mal, mein Junge, komm und setz dichDu kannst auf mich vertrau'n, ich lieb' dich wie ein Vater den SohnGemeinsam machen wir jetzt Abermillion'n“Er hörte, was er sagte, und tötete die ZweifelDem Teufel gegenüber, der Engel war zu leiseMit jedem Tag verlor er sich selbst ein bisschen mehrDenn nichts war so wie vorher, vergiftet war sein HerzBetäubt und ohne Rücksicht, verzweifelt auf der SucheNicht leicht zu unterscheiden, das Böse von dem GutenEr opferte fast alles fürs schnelle Leben, asap
+Kettensägen Massaker, Heavy Metal PaybackGlaub mir, Zeiten ändern sich und plötzlich auch MephistoVerlockend war das Rampenlicht und langsam wurd' er schizoEr wollte eine Bühne, seine Fratze auf der LeinwandRiss die Zügel an sich, akzeptierte keinen EinwandEin Teufel und Diktator, nach außen immer höflichSeine tausenden Gesichter zu durchschauen war nicht möglichEin Meister der Intrigen, gespalten seine ZungeDer Schlüssel des Erfolges war schon immer nur der JungeUnd viele Jahre lief es, drehten sich die Rädchen
+Bis zum ersten Februar, der Junge traf ein MädchenSie würde vieles ändern und irgendwie geschah esDass sie an seiner Seite blieb, endlich etwas WahresZwischen all den Lügen und finsteren GestaltenDer Junge wurde Vater und nichts blieb mehr beim AltenMephisto säte Zwietracht und zog alle RegisterAuf einmal war er Anwalt, Kläger sowie RichterEs brach einem das Herz, den Jungen traf das SchicksalAls seine Mutter starb, nur noch trauernde GesichterEr floh vor der Familie, es schlug Mephistos StundeUnd alles, was er liebte, ging allmählich vor die HundeEr fing sich an zu streiten, im Endeffekt für gar nixVersetzte das Mädchen in regelrechte PanikSie erkannte ihn nicht wieder, was war bloß aus ihm geworden?Das letzte bisschen Hoffnung zwischen ihnen war gestorbenSie fiel auf ihre Knie, zu viel Last auf ihren SchulternSie weinte, denn sie wusste ganz genau, wer daran schuld warDoch niemand hörte zu, als sie warnte und flehteEin Engel ohne Flügel sang klare Gebete
+Mephisto, der Teufel, ein Lügner ohnegleichen
+Für die Seele dieses Jungen ging er wieder über Leichen
+Die Ehe lag in Scherben, er hatte, was er wollte
+Und ließ ihn nicht mehr los wie ein Wolf seine Beute
+Und so kam es, dass der Schatten ein Stück mehr von ihm Besitz nahm
+Zimmer gab es viele, aber niemand macht das Licht an
+Egal, was er versuchte, er versank in Depression'n
+Seine ständigen Begleiter waren Geister und Dämon'n
+Er versagte sich dem Leben, weitermachen war nicht möglich
+Die Frage, die ihn quälte: Weshalb war er nur so töricht?
+Ihm fehlten seine Kinder, sein Mädchen, seine Mama
+Am Telefon erfuhr der Junge, sie war wieder schwangerEr musste sie zurückgewinn'n und wusste, was zu tun war
+Der Einzige, der das nicht wollte, war sein falscher Bruder
+Mephisto wurde zornig, als er davon erfuhr
+Er wollte es verhindern, von Gewissen keine Spur
+Die Waffen, die er nutzte, waren schrecklich egoistisch
+Fassade noch zu wahren, war von jetzt an nicht mehr wichtigEr ließ es darauf ankomm'n und sprengte seine KettenErhob die Stimme jetzt, um die Familie zu retten
+Das erste Mal seit Jahren bekam das Mädchen wirklich
+Den gebührenden Respekt, denn wahre Liebe stirbt nicht
+Die Narben saßen tief, doch der Feind war jetzt derselbe
+Gemeinsam durch den Regen, den Sturm und auch die Kälte
+Sie waren voller Zuversicht, mutig und entschlossen
+Er gab ihr ein Versprechen und es wurde nicht gebrochen
+Und da verlor Mephisto den Schrecken alter Tage
+Krallen einer Ratte, schwarze Flügel wie ein Rabe
+Seine Maske fiel, so sah man seine wahre Gestalt
+Er war ein Monster aus Feuer, doch sein Atem war kalt
+Es ging um Leben und Tod, der Junge zog in den Kampf
+Des Teufels Pläne allesamt in den Boden gestampft
+[Part 2]
+Fünfzehn Jahre später, der Junge fast vierzig
+Fast alle seine Träume inzwischen verwirklicht
+Kinder hat er fünf,Scheine hat er viele
+Ehejahre sechs, geheiratet aus Liebe
+Soloalben dreizehn,das Gold liegt im Keller
+Talent bringt noch immer das Brot auf den Teller
+Das Leben könnt' so schön sein, unbeschwert die Wege
+Hätte nur Mephisto nicht noch immer seine Seele
+Verschlossen und versenkt, verloren in den Tiefen des Ozeans
+Er würde sogar mit dem Tod bezahl'n
+Denn er hat keine Angst, nur weil sein Gegner vorher nie am Boden lag
+Genau wie damals – David gegen Goliath
+Die Stimmen der Engel, sie singen im Chor
+Ihre Seelen, sie stiegen zum Himmel empor
+Und erzählen Geschichten vom Teufel vor Ort
+Wie ein Junge aus Leichtsinn fast alles verlor
+Denn es gab Zeiten, da folgte er Mephisto wie blindHörte die Lügen immer wieder wie das Flüstern im Wind
+Wurde genauso wie er, gab den Widerstand auf
+Jetzt muss er vieles graderücken, weil ihm niemand mehr glaubt
+So viele Menschen erniedrigt, sich unfair verhalten
+Auf dem Weg ihres Erfolges liegen hunderte Leichen
+Man schrieb und suchte die Fehler, die sie machten
+Unmöglich, die Dinge aus der Ferne zu betrachten
+Doch heute hat der Junge die nötige Distanz
+Das Bild in der Gesamtheit ungeschönt und ohne Glanz
+Und heute sieht Mephisto, das Schicksal nimmt sein'n Lauf
+Auch er kann nichts dran ändern, kein Feuer ohne Rauch
+Er hat gewütet und am Ende Schutt und Asche hinterlassen
+Er gab dem Jungen mehr als einen Grund, um ihn zu hassen
+Unterwarf ihn seinem Willen, ständige Kontrolle
+Dass er daran erstickte, spielt am Ende keine Rolle
+Abscheulich all die Dinge, die er billigend in Kauf nahm
+Lebte von den Menschen, die wahrhaftig zu ihm aufsah'n
+Ein Blender, dem das Geld zu Kopf gestiegen ist
+Der so viel hat, aber trotzdem nie zufrieden ist
+Der niemals schläft, der Preis für seinen Frevel
+Auf ewig soll er wandern durch Täler voller Schwefel
+Zusamm'n mit seines Gleichen, auf dass sie nie mehr heimkehr'n
+Nie mehr wieder wird er diesen Jungen nochmal einsperr'n
+Das Ende einer Herrschaft, selbsternannter König
+Die Welt wird ihn vergessen, nicht mehr außer-, nur gewöhnlich
+Wer ist ihm noch geblieben? Seine Heerscharen fliehen
+Gütig, barmherzig, er selbst war es nie
+Die Angst war sein Hammer, die List war sein Meißel
+Sein kranker Verstand war nicht zu begreifen
+Unfassbar, wie boshaft, seht euch sein Werk an
+Hunderte Seelen, da unten in Kerkern, yeah
+Jeder weiß, der Teufel hat sein eigenes Motiv
+Das Leid, das er Menschen zufügt, ist sein Profit
+Der Junge hätte lieber seine Finger davon lassen soll'n
+Doch stattdessen machte er Mephistos Taschen voll
+Er hat genug bezahlt, blieb keinem etwas schuldig
+Egal, wie sehr es weh tat, der Junge blieb geduldig
+Von jetzt an keine Kompromisse mehr
+Dissen ohne Namen nenn'n, glaub mir mal, sie wissen, wer
+Die Seele dieses Jungen genomm'n hat aus Gier
+Er muss akzeptier'n, niemals wieder wir
+Diese Zeilen komm'n von Herzen an Mephisto addressiert
+Er war nie ein wahrer Freund, nur ein rücksichtsloses Tier
+Am Himmel kreisen Geier, eine Ära geht zu Ende
+So wurde aus dem Jung'n eine lebende Legende
+Er nahm den Mut zusammen und stellte sich sein'n Ängsten
+Keine Maskerade, denn die Wahrheit währt am längsten
+Er machte reinen Tisch, ein für alle Mal
+Sein Herz weiß, man kann mit der Seele nicht bezahl'n
+Also holt er sie zurück, der Deal war hiermit nichtig
+Damit am Ende dieses Tunnels endlich wieder Licht ist
+Und siehe da, das Leben war wieder voller Farben
+So viele neue Wege, die sich ihm nun offenbarten
+Er blickt nicht mehr zurück, das Kapitel ist Geschichte
+Von dem dann seine Enkelkinder irgendwann berichten
+Man wird von ihm erzählen, „Er war ein guter JungeMit Wut in seiner Lunge und dem Herzen auf der ZungeDie Fehler, die er machte, sind tief in ihm verankertFür jeden Tag mit der Familie ist er dankbar“
+Denn es geschehen Dinge, die meisten Leute zweifeln
+Verständlich, dass viele von ihnen für die Wahrheit nicht bereit sind
+Der größte Trick des Teufels, mal abseits seiner PläneWar die Menschheit glauben lassen, dass es ihn nicht gäbe</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
